--- a/Assets/06.Table/PetEquipment.xlsx
+++ b/Assets/06.Table/PetEquipment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A594F924-C910-448E-AA13-1C7C68F7CD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CFC856-CA4A-4AB6-AFFB-D8EB34B3764A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetEquipment" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>현무갑옷</t>
+    <t>현무 갑주(1성)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -553,7 +553,7 @@
         <v>10000000</v>
       </c>
       <c r="E2">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>

--- a/Assets/06.Table/PetEquipment.xlsx
+++ b/Assets/06.Table/PetEquipment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CFC856-CA4A-4AB6-AFFB-D8EB34B3764A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC0EACB-1B63-4167-8928-B2AD72EAB315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="7920" yWindow="2415" windowWidth="27540" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetEquipment" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/PetEquipment.xlsx
+++ b/Assets/06.Table/PetEquipment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC0EACB-1B63-4167-8928-B2AD72EAB315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25128A97-B585-4CB7-8C85-890E773C5C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="2415" windowWidth="27540" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="0" yWindow="2925" windowWidth="38400" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetEquipment" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,14 @@
   </si>
   <si>
     <t>현무 갑주(1성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>petequip1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백호 부적(1성)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -584,6 +592,53 @@
       </c>
       <c r="O2" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>10000000</v>
+      </c>
+      <c r="E3">
+        <v>100000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>10000</v>
+      </c>
+      <c r="K3">
+        <v>900</v>
+      </c>
+      <c r="L3">
+        <v>17</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1E-3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/PetEquipment.xlsx
+++ b/Assets/06.Table/PetEquipment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25128A97-B585-4CB7-8C85-890E773C5C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EFBE27-6298-4402-BC71-C0E2949D25F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2925" windowWidth="38400" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetEquipment" sheetId="1" r:id="rId1"/>
@@ -479,28 +479,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.375" customWidth="1"/>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="9.296875" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" customWidth="1"/>
+    <col min="3" max="3" width="13.59765625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="19.125" customWidth="1"/>
-    <col min="6" max="6" width="21.375" customWidth="1"/>
-    <col min="7" max="7" width="26.625" customWidth="1"/>
-    <col min="8" max="8" width="26.125" customWidth="1"/>
-    <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="19.09765625" customWidth="1"/>
+    <col min="6" max="6" width="21.296875" customWidth="1"/>
+    <col min="7" max="7" width="26.59765625" customWidth="1"/>
+    <col min="8" max="8" width="26.09765625" customWidth="1"/>
+    <col min="9" max="9" width="14.296875" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="26.25" customWidth="1"/>
-    <col min="12" max="12" width="17.625" customWidth="1"/>
-    <col min="13" max="13" width="18.75" customWidth="1"/>
+    <col min="11" max="11" width="26.19921875" customWidth="1"/>
+    <col min="12" max="12" width="17.59765625" customWidth="1"/>
+    <col min="13" max="13" width="18.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -547,7 +547,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -594,7 +594,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -617,16 +617,16 @@
         <v>100</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I3">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="J3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>900</v>
+        <v>1E-4</v>
       </c>
       <c r="L3">
         <v>17</v>
@@ -656,12 +656,12 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="97.25" customWidth="1"/>
+    <col min="3" max="3" width="97.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -674,7 +674,7 @@
         <v>25025000000</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2</v>
       </c>
@@ -683,7 +683,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>3</v>
       </c>
@@ -692,7 +692,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>4</v>
       </c>
@@ -701,7 +701,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>5</v>
       </c>
@@ -710,7 +710,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>6</v>
       </c>
@@ -719,7 +719,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>7</v>
       </c>
@@ -728,7 +728,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>8</v>
       </c>
@@ -737,7 +737,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>9</v>
       </c>
@@ -746,7 +746,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>10</v>
       </c>
@@ -755,7 +755,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>11</v>
       </c>
@@ -764,7 +764,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>12</v>
       </c>
@@ -773,7 +773,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>13</v>
       </c>
@@ -782,7 +782,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>14</v>
       </c>
@@ -791,7 +791,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>15</v>
       </c>
@@ -800,7 +800,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>16</v>
       </c>
@@ -809,7 +809,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>17</v>
       </c>
@@ -818,7 +818,7 @@
         <v>850000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>18</v>
       </c>
@@ -827,7 +827,7 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>19</v>
       </c>
@@ -836,7 +836,7 @@
         <v>950000</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>20</v>
       </c>
@@ -845,7 +845,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>21</v>
       </c>
@@ -854,7 +854,7 @@
         <v>1050000</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>22</v>
       </c>
@@ -863,7 +863,7 @@
         <v>1100000</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>23</v>
       </c>
@@ -872,7 +872,7 @@
         <v>1150000</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>24</v>
       </c>
@@ -881,7 +881,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>25</v>
       </c>
@@ -890,7 +890,7 @@
         <v>1250000</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>26</v>
       </c>
@@ -899,7 +899,7 @@
         <v>1300000</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>27</v>
       </c>
@@ -908,7 +908,7 @@
         <v>1350000</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>28</v>
       </c>
@@ -917,7 +917,7 @@
         <v>1400000</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>29</v>
       </c>
@@ -926,7 +926,7 @@
         <v>1450000</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>30</v>
       </c>
@@ -935,7 +935,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>31</v>
       </c>
@@ -944,7 +944,7 @@
         <v>1550000</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>32</v>
       </c>
@@ -953,7 +953,7 @@
         <v>1600000</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>33</v>
       </c>
@@ -962,7 +962,7 @@
         <v>1650000</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>34</v>
       </c>
@@ -971,7 +971,7 @@
         <v>1700000</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>35</v>
       </c>
@@ -980,7 +980,7 @@
         <v>1750000</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>36</v>
       </c>
@@ -989,7 +989,7 @@
         <v>1800000</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>37</v>
       </c>
@@ -998,7 +998,7 @@
         <v>1850000</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>38</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>1900000</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>39</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>1950000</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>40</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>41</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>2050000</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>42</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>2100000</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>43</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>2150000</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>44</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>2200000</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>45</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>2250000</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>46</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>2300000</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>47</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>2350000</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>48</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>2400000</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>49</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>2450000</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>50</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>51</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>2550000</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>52</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>2600000</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>53</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>2650000</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>54</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>2700000</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>55</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>2750000</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>56</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>2800000</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>57</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>2850000</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>58</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>2900000</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>59</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>2950000</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>60</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>61</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>3050000</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>62</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>3100000</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>63</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>3150000</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>64</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>3200000</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>65</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>3250000</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>66</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>3300000</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>67</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>3350000</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>68</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>3400000</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>69</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>3450000</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>70</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>3500000</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>71</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>3550000</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>72</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>3600000</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>73</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>3650000</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>74</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>3700000</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>75</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>3750000</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>76</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>3800000</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>77</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>3850000</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>78</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>3900000</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>79</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>3950000</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>80</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>81</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>4050000</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>82</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>4100000</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>83</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>4150000</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>84</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>4200000</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>85</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>4250000</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>86</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>4300000</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>87</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>4350000</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>88</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>4400000</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>89</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>4450000</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>90</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>91</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>4550000</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>92</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>4600000</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>93</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>4650000</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>94</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>4700000</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>95</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>4750000</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>96</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>4800000</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>97</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>4850000</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>98</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>4900000</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>99</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>4950000</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>100</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>101</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>5050000</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>102</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>5100000</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>103</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>5150000</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>104</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>105</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>5250000</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>106</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>5300000</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>107</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>5350000</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>108</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>5400000</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>109</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>5450000</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>110</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>5500000</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>111</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>5550000</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>112</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>5600000</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>113</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>5650000</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>114</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>5700000</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>115</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>5750000</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>116</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>5800000</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>117</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>5850000</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>118</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>5900000</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>119</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>5950000</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>120</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>121</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>6050000</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>122</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>6100000</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>123</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>6150000</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>124</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>6200000</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>125</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>6250000</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>126</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>6300000</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>127</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>6350000</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>128</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>6400000</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>129</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>6450000</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>130</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>6500000</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>131</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>6550000</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>132</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>6600000</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>133</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>6650000</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>134</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>6700000</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>135</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>6750000</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>136</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>6800000</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>137</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>6850000</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>138</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>6900000</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>139</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>6950000</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>140</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>141</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>7050000</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>142</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>7100000</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>143</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>7150000</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>144</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>7200000</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>145</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>7250000</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>146</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>7300000</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>147</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>7350000</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>148</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>7400000</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>149</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>7450000</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>150</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>7500000</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>151</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>7550000</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>152</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>7600000</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>153</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>7650000</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>154</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>7700000</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A155">
         <v>155</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>7750000</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A156">
         <v>156</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>7800000</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A157">
         <v>157</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>7850000</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A158">
         <v>158</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>7900000</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A159">
         <v>159</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>7950000</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A160">
         <v>160</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A161">
         <v>161</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>8050000</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A162">
         <v>162</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>8100000</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A163">
         <v>163</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>8150000</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A164">
         <v>164</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>8200000</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A165">
         <v>165</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>8250000</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A166">
         <v>166</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>8300000</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A167">
         <v>167</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>8350000</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A168">
         <v>168</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>8400000</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A169">
         <v>169</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>8450000</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A170">
         <v>170</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>8500000</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A171">
         <v>171</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>8550000</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A172">
         <v>172</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>8600000</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A173">
         <v>173</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>8650000</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A174">
         <v>174</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>8700000</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A175">
         <v>175</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>8750000</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A176">
         <v>176</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>8800000</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A177">
         <v>177</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>8850000</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A178">
         <v>178</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>8900000</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A179">
         <v>179</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>8950000</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A180">
         <v>180</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>9000000</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A181">
         <v>181</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>9050000</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A182">
         <v>182</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>9100000</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A183">
         <v>183</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>9150000</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A184">
         <v>184</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>9200000</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A185">
         <v>185</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>9250000</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A186">
         <v>186</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>9300000</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A187">
         <v>187</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>9350000</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A188">
         <v>188</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>9400000</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A189">
         <v>189</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>9450000</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A190">
         <v>190</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>9500000</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A191">
         <v>191</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>9550000</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A192">
         <v>192</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>9600000</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A193">
         <v>193</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>9650000</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A194">
         <v>194</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>9700000</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A195">
         <v>195</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>9750000</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A196">
         <v>196</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>9800000</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A197">
         <v>197</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>9850000</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A198">
         <v>198</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>9900000</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A199">
         <v>199</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>9950000</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A200">
         <v>200</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A201">
         <v>201</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>10050000</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A202">
         <v>202</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>10100000</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A203">
         <v>203</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>10150000</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A204">
         <v>204</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>10200000</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A205">
         <v>205</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>10250000</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A206">
         <v>206</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>10300000</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A207">
         <v>207</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>10350000</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A208">
         <v>208</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>10400000</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A209">
         <v>209</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>10450000</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A210">
         <v>210</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>10500000</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A211">
         <v>211</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>10550000</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A212">
         <v>212</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>10600000</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A213">
         <v>213</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>10650000</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A214">
         <v>214</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>10700000</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A215">
         <v>215</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>10750000</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A216">
         <v>216</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>10800000</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A217">
         <v>217</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>10850000</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A218">
         <v>218</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>10900000</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A219">
         <v>219</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>10950000</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A220">
         <v>220</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>11000000</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A221">
         <v>221</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>11050000</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A222">
         <v>222</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>11100000</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A223">
         <v>223</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>11150000</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A224">
         <v>224</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>11200000</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A225">
         <v>225</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>11250000</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A226">
         <v>226</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>11300000</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A227">
         <v>227</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>11350000</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A228">
         <v>228</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>11400000</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A229">
         <v>229</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>11450000</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A230">
         <v>230</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>11500000</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A231">
         <v>231</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>11550000</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A232">
         <v>232</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>11600000</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A233">
         <v>233</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>11650000</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A234">
         <v>234</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>11700000</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A235">
         <v>235</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>11750000</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A236">
         <v>236</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>11800000</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A237">
         <v>237</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>11850000</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A238">
         <v>238</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>11900000</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A239">
         <v>239</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>11950000</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A240">
         <v>240</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>12000000</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A241">
         <v>241</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>12050000</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A242">
         <v>242</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>12100000</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A243">
         <v>243</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>12150000</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A244">
         <v>244</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>12200000</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A245">
         <v>245</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>12250000</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A246">
         <v>246</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>12300000</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A247">
         <v>247</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>12350000</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A248">
         <v>248</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>12400000</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A249">
         <v>249</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>12450000</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A250">
         <v>250</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>12500000</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A251">
         <v>251</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>12550000</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A252">
         <v>252</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>12600000</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A253">
         <v>253</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>12650000</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A254">
         <v>254</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>12700000</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A255">
         <v>255</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>12750000</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A256">
         <v>256</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>12800000</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A257">
         <v>257</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>12850000</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A258">
         <v>258</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>12900000</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A259">
         <v>259</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>12950000</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A260">
         <v>260</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>13000000</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A261">
         <v>261</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>13050000</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A262">
         <v>262</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>13100000</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A263">
         <v>263</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>13150000</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A264">
         <v>264</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>13200000</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A265">
         <v>265</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>13250000</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A266">
         <v>266</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>13300000</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A267">
         <v>267</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>13350000</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A268">
         <v>268</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>13400000</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A269">
         <v>269</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>13450000</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A270">
         <v>270</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>13500000</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A271">
         <v>271</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>13550000</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A272">
         <v>272</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>13600000</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A273">
         <v>273</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>13650000</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A274">
         <v>274</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>13700000</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A275">
         <v>275</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>13750000</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A276">
         <v>276</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>13800000</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A277">
         <v>277</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>13850000</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A278">
         <v>278</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>13900000</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A279">
         <v>279</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>13950000</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A280">
         <v>280</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>14000000</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A281">
         <v>281</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>14050000</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A282">
         <v>282</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>14100000</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A283">
         <v>283</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>14150000</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A284">
         <v>284</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>14200000</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A285">
         <v>285</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>14250000</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A286">
         <v>286</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>14300000</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A287">
         <v>287</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>14350000</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A288">
         <v>288</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>14400000</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A289">
         <v>289</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>14450000</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A290">
         <v>290</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>14500000</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A291">
         <v>291</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>14550000</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A292">
         <v>292</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>14600000</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A293">
         <v>293</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>14650000</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A294">
         <v>294</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>14700000</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A295">
         <v>295</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>14750000</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A296">
         <v>296</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>14800000</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A297">
         <v>297</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>14850000</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A298">
         <v>298</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>14900000</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A299">
         <v>299</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>14950000</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A300">
         <v>300</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A301">
         <v>301</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>15050000</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A302">
         <v>302</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>15100000</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A303">
         <v>303</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>15150000</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A304">
         <v>304</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>15200000</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A305">
         <v>305</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>15250000</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A306">
         <v>306</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>15300000</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A307">
         <v>307</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>15350000</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A308">
         <v>308</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>15400000</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A309">
         <v>309</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>15450000</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A310">
         <v>310</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>15500000</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A311">
         <v>311</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>15550000</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A312">
         <v>312</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>15600000</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A313">
         <v>313</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>15650000</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A314">
         <v>314</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>15700000</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A315">
         <v>315</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>15750000</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A316">
         <v>316</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>15800000</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A317">
         <v>317</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>15850000</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A318">
         <v>318</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>15900000</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A319">
         <v>319</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>15950000</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A320">
         <v>320</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>16000000</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A321">
         <v>321</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>16050000</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A322">
         <v>322</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>16100000</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A323">
         <v>323</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>16150000</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A324">
         <v>324</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>16200000</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A325">
         <v>325</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>16250000</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A326">
         <v>326</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>16300000</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A327">
         <v>327</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>16350000</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A328">
         <v>328</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>16400000</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A329">
         <v>329</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>16450000</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A330">
         <v>330</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>16500000</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A331">
         <v>331</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>16550000</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A332">
         <v>332</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>16600000</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A333">
         <v>333</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>16650000</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A334">
         <v>334</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>16700000</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A335">
         <v>335</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>16750000</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A336">
         <v>336</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>16800000</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A337">
         <v>337</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>16850000</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A338">
         <v>338</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>16900000</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A339">
         <v>339</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>16950000</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A340">
         <v>340</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>17000000</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A341">
         <v>341</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>17050000</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A342">
         <v>342</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>17100000</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A343">
         <v>343</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>17150000</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A344">
         <v>344</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>17200000</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A345">
         <v>345</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>17250000</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A346">
         <v>346</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>17300000</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A347">
         <v>347</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>17350000</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A348">
         <v>348</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>17400000</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A349">
         <v>349</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>17450000</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A350">
         <v>350</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>17500000</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A351">
         <v>351</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>17550000</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A352">
         <v>352</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>17600000</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A353">
         <v>353</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>17650000</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A354">
         <v>354</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>17700000</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A355">
         <v>355</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>17750000</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A356">
         <v>356</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>17800000</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A357">
         <v>357</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>17850000</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A358">
         <v>358</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>17900000</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A359">
         <v>359</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>17950000</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A360">
         <v>360</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>18000000</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A361">
         <v>361</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>18050000</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A362">
         <v>362</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>18100000</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A363">
         <v>363</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>18150000</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A364">
         <v>364</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>18200000</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A365">
         <v>365</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>18250000</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A366">
         <v>366</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>18300000</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A367">
         <v>367</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>18350000</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A368">
         <v>368</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>18400000</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A369">
         <v>369</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>18450000</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A370">
         <v>370</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>18500000</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A371">
         <v>371</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>18550000</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A372">
         <v>372</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>18600000</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A373">
         <v>373</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>18650000</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A374">
         <v>374</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>18700000</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A375">
         <v>375</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>18750000</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A376">
         <v>376</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>18800000</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A377">
         <v>377</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>18850000</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A378">
         <v>378</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>18900000</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A379">
         <v>379</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>18950000</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A380">
         <v>380</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>19000000</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A381">
         <v>381</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>19050000</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A382">
         <v>382</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>19100000</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A383">
         <v>383</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>19150000</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A384">
         <v>384</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>19200000</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A385">
         <v>385</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>19250000</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A386">
         <v>386</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>19300000</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A387">
         <v>387</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>19350000</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A388">
         <v>388</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>19400000</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A389">
         <v>389</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>19450000</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A390">
         <v>390</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>19500000</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A391">
         <v>391</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>19550000</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A392">
         <v>392</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>19600000</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A393">
         <v>393</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>19650000</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A394">
         <v>394</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>19700000</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A395">
         <v>395</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>19750000</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A396">
         <v>396</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>19800000</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A397">
         <v>397</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>19850000</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A398">
         <v>398</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>19900000</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A399">
         <v>399</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>19950000</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A400">
         <v>400</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>20000000</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A401">
         <v>401</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>20050000</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A402">
         <v>402</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>20100000</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A403">
         <v>403</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>20150000</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A404">
         <v>404</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>20200000</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A405">
         <v>405</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>20250000</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A406">
         <v>406</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>20300000</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A407">
         <v>407</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>20350000</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A408">
         <v>408</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>20400000</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A409">
         <v>409</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>20450000</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A410">
         <v>410</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>20500000</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A411">
         <v>411</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>20550000</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A412">
         <v>412</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>20600000</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A413">
         <v>413</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>20650000</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A414">
         <v>414</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>20700000</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A415">
         <v>415</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>20750000</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A416">
         <v>416</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>20800000</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A417">
         <v>417</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>20850000</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A418">
         <v>418</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>20900000</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A419">
         <v>419</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>20950000</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A420">
         <v>420</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>21000000</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A421">
         <v>421</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>21050000</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A422">
         <v>422</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>21100000</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A423">
         <v>423</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>21150000</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A424">
         <v>424</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>21200000</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A425">
         <v>425</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>21250000</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A426">
         <v>426</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>21300000</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A427">
         <v>427</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>21350000</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A428">
         <v>428</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>21400000</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A429">
         <v>429</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>21450000</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A430">
         <v>430</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>21500000</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A431">
         <v>431</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>21550000</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A432">
         <v>432</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>21600000</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A433">
         <v>433</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>21650000</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A434">
         <v>434</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>21700000</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A435">
         <v>435</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>21750000</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A436">
         <v>436</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>21800000</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A437">
         <v>437</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>21850000</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A438">
         <v>438</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>21900000</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A439">
         <v>439</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>21950000</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A440">
         <v>440</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>22000000</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A441">
         <v>441</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>22050000</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A442">
         <v>442</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>22100000</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A443">
         <v>443</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>22150000</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A444">
         <v>444</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>22200000</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A445">
         <v>445</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>22250000</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A446">
         <v>446</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>22300000</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A447">
         <v>447</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>22350000</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A448">
         <v>448</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>22400000</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A449">
         <v>449</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>22450000</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A450">
         <v>450</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>22500000</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A451">
         <v>451</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>22550000</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A452">
         <v>452</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>22600000</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A453">
         <v>453</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>22650000</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A454">
         <v>454</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>22700000</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A455">
         <v>455</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>22750000</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A456">
         <v>456</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>22800000</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A457">
         <v>457</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>22850000</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A458">
         <v>458</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>22900000</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A459">
         <v>459</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>22950000</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A460">
         <v>460</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>23000000</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A461">
         <v>461</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>23050000</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A462">
         <v>462</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>23100000</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A463">
         <v>463</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>23150000</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A464">
         <v>464</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>23200000</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A465">
         <v>465</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>23250000</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A466">
         <v>466</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>23300000</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A467">
         <v>467</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>23350000</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A468">
         <v>468</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>23400000</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A469">
         <v>469</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>23450000</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A470">
         <v>470</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>23500000</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A471">
         <v>471</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>23550000</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A472">
         <v>472</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>23600000</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A473">
         <v>473</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>23650000</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A474">
         <v>474</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>23700000</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A475">
         <v>475</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>23750000</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A476">
         <v>476</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>23800000</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A477">
         <v>477</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>23850000</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A478">
         <v>478</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>23900000</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A479">
         <v>479</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>23950000</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A480">
         <v>480</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>24000000</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A481">
         <v>481</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>24050000</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A482">
         <v>482</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>24100000</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A483">
         <v>483</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>24150000</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A484">
         <v>484</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>24200000</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A485">
         <v>485</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>24250000</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A486">
         <v>486</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>24300000</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A487">
         <v>487</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>24350000</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A488">
         <v>488</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>24400000</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A489">
         <v>489</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>24450000</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A490">
         <v>490</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>24500000</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A491">
         <v>491</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>24550000</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A492">
         <v>492</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>24600000</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A493">
         <v>493</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>24650000</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A494">
         <v>494</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>24700000</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A495">
         <v>495</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>24750000</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A496">
         <v>496</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>24800000</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A497">
         <v>497</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>24850000</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A498">
         <v>498</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>24900000</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A499">
         <v>499</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>24950000</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A500">
         <v>500</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>25000000</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A501">
         <v>501</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>25050000</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A502">
         <v>502</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>25100000</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A503">
         <v>503</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>25150000</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A504">
         <v>504</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>25200000</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A505">
         <v>505</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>25250000</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A506">
         <v>506</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>25300000</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A507">
         <v>507</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>25350000</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A508">
         <v>508</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>25400000</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A509">
         <v>509</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>25450000</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A510">
         <v>510</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>25500000</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A511">
         <v>511</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>25550000</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A512">
         <v>512</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>25600000</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A513">
         <v>513</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>25650000</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A514">
         <v>514</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>25700000</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A515">
         <v>515</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>25750000</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A516">
         <v>516</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>25800000</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A517">
         <v>517</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>25850000</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A518">
         <v>518</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>25900000</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A519">
         <v>519</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>25950000</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A520">
         <v>520</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>26000000</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A521">
         <v>521</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>26050000</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A522">
         <v>522</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>26100000</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A523">
         <v>523</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>26150000</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A524">
         <v>524</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>26200000</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A525">
         <v>525</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>26250000</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A526">
         <v>526</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>26300000</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A527">
         <v>527</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>26350000</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A528">
         <v>528</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>26400000</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A529">
         <v>529</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>26450000</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A530">
         <v>530</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>26500000</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A531">
         <v>531</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>26550000</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A532">
         <v>532</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>26600000</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A533">
         <v>533</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>26650000</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A534">
         <v>534</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>26700000</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A535">
         <v>535</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>26750000</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A536">
         <v>536</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>26800000</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A537">
         <v>537</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>26850000</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A538">
         <v>538</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>26900000</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A539">
         <v>539</v>
       </c>
@@ -5516,7 +5516,7 @@
         <v>26950000</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A540">
         <v>540</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>27000000</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A541">
         <v>541</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>27050000</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A542">
         <v>542</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>27100000</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A543">
         <v>543</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>27150000</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A544">
         <v>544</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>27200000</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A545">
         <v>545</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>27250000</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A546">
         <v>546</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>27300000</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A547">
         <v>547</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>27350000</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A548">
         <v>548</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>27400000</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A549">
         <v>549</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>27450000</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A550">
         <v>550</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>27500000</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A551">
         <v>551</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>27550000</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A552">
         <v>552</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>27600000</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A553">
         <v>553</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>27650000</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A554">
         <v>554</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>27700000</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A555">
         <v>555</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>27750000</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A556">
         <v>556</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>27800000</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A557">
         <v>557</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>27850000</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A558">
         <v>558</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>27900000</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A559">
         <v>559</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>27950000</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A560">
         <v>560</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>28000000</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A561">
         <v>561</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>28050000</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A562">
         <v>562</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>28100000</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A563">
         <v>563</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>28150000</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A564">
         <v>564</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>28200000</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A565">
         <v>565</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>28250000</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A566">
         <v>566</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>28300000</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A567">
         <v>567</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>28350000</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A568">
         <v>568</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>28400000</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A569">
         <v>569</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>28450000</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A570">
         <v>570</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>28500000</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A571">
         <v>571</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>28550000</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A572">
         <v>572</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>28600000</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A573">
         <v>573</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>28650000</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A574">
         <v>574</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>28700000</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A575">
         <v>575</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>28750000</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A576">
         <v>576</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>28800000</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A577">
         <v>577</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>28850000</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A578">
         <v>578</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>28900000</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A579">
         <v>579</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>28950000</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A580">
         <v>580</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>29000000</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A581">
         <v>581</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>29050000</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A582">
         <v>582</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>29100000</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A583">
         <v>583</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>29150000</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A584">
         <v>584</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>29200000</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A585">
         <v>585</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>29250000</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A586">
         <v>586</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>29300000</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A587">
         <v>587</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>29350000</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A588">
         <v>588</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>29400000</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A589">
         <v>589</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>29450000</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A590">
         <v>590</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>29500000</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A591">
         <v>591</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>29550000</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A592">
         <v>592</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>29600000</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A593">
         <v>593</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>29650000</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A594">
         <v>594</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>29700000</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A595">
         <v>595</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>29750000</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A596">
         <v>596</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>29800000</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A597">
         <v>597</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>29850000</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A598">
         <v>598</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>29900000</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A599">
         <v>599</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>29950000</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A600">
         <v>600</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A601">
         <v>601</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>30050000</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A602">
         <v>602</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>30100000</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A603">
         <v>603</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>30150000</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A604">
         <v>604</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>30200000</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A605">
         <v>605</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>30250000</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A606">
         <v>606</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>30300000</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A607">
         <v>607</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>30350000</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A608">
         <v>608</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>30400000</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A609">
         <v>609</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>30450000</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A610">
         <v>610</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>30500000</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A611">
         <v>611</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>30550000</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A612">
         <v>612</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>30600000</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A613">
         <v>613</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>30650000</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A614">
         <v>614</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>30700000</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A615">
         <v>615</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>30750000</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A616">
         <v>616</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>30800000</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A617">
         <v>617</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>30850000</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A618">
         <v>618</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>30900000</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A619">
         <v>619</v>
       </c>
@@ -6236,7 +6236,7 @@
         <v>30950000</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A620">
         <v>620</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>31000000</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A621">
         <v>621</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>31050000</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A622">
         <v>622</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>31100000</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A623">
         <v>623</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>31150000</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A624">
         <v>624</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>31200000</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A625">
         <v>625</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>31250000</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A626">
         <v>626</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>31300000</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A627">
         <v>627</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>31350000</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A628">
         <v>628</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>31400000</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A629">
         <v>629</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>31450000</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A630">
         <v>630</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>31500000</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A631">
         <v>631</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>31550000</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A632">
         <v>632</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>31600000</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A633">
         <v>633</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>31650000</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A634">
         <v>634</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>31700000</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A635">
         <v>635</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>31750000</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A636">
         <v>636</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>31800000</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A637">
         <v>637</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>31850000</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A638">
         <v>638</v>
       </c>
@@ -6407,7 +6407,7 @@
         <v>31900000</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A639">
         <v>639</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>31950000</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A640">
         <v>640</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>32000000</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A641">
         <v>641</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>32050000</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A642">
         <v>642</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>32100000</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A643">
         <v>643</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>32150000</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A644">
         <v>644</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>32200000</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A645">
         <v>645</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>32250000</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A646">
         <v>646</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>32300000</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A647">
         <v>647</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>32350000</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A648">
         <v>648</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>32400000</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A649">
         <v>649</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>32450000</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A650">
         <v>650</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>32500000</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A651">
         <v>651</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>32550000</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A652">
         <v>652</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>32600000</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A653">
         <v>653</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>32650000</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A654">
         <v>654</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>32700000</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A655">
         <v>655</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>32750000</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A656">
         <v>656</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>32800000</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A657">
         <v>657</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>32850000</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A658">
         <v>658</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>32900000</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A659">
         <v>659</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>32950000</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A660">
         <v>660</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>33000000</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A661">
         <v>661</v>
       </c>
@@ -6614,7 +6614,7 @@
         <v>33050000</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A662">
         <v>662</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>33100000</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A663">
         <v>663</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>33150000</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A664">
         <v>664</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>33200000</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A665">
         <v>665</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>33250000</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A666">
         <v>666</v>
       </c>
@@ -6659,7 +6659,7 @@
         <v>33300000</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A667">
         <v>667</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>33350000</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A668">
         <v>668</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>33400000</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A669">
         <v>669</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>33450000</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A670">
         <v>670</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>33500000</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A671">
         <v>671</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>33550000</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A672">
         <v>672</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>33600000</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A673">
         <v>673</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>33650000</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A674">
         <v>674</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>33700000</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A675">
         <v>675</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>33750000</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A676">
         <v>676</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>33800000</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A677">
         <v>677</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>33850000</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A678">
         <v>678</v>
       </c>
@@ -6767,7 +6767,7 @@
         <v>33900000</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A679">
         <v>679</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>33950000</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A680">
         <v>680</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>34000000</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A681">
         <v>681</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>34050000</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A682">
         <v>682</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>34100000</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A683">
         <v>683</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>34150000</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A684">
         <v>684</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>34200000</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A685">
         <v>685</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>34250000</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A686">
         <v>686</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>34300000</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A687">
         <v>687</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>34350000</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A688">
         <v>688</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>34400000</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A689">
         <v>689</v>
       </c>
@@ -6866,7 +6866,7 @@
         <v>34450000</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A690">
         <v>690</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>34500000</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A691">
         <v>691</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>34550000</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A692">
         <v>692</v>
       </c>
@@ -6893,7 +6893,7 @@
         <v>34600000</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A693">
         <v>693</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>34650000</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A694">
         <v>694</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>34700000</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A695">
         <v>695</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>34750000</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A696">
         <v>696</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>34800000</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A697">
         <v>697</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>34850000</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A698">
         <v>698</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>34900000</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A699">
         <v>699</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>34950000</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A700">
         <v>700</v>
       </c>
@@ -6965,7 +6965,7 @@
         <v>35000000</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A701">
         <v>701</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>35050000</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A702">
         <v>702</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>35100000</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A703">
         <v>703</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>35150000</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A704">
         <v>704</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>35200000</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A705">
         <v>705</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>35250000</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A706">
         <v>706</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>35300000</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A707">
         <v>707</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>35350000</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A708">
         <v>708</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>35400000</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A709">
         <v>709</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>35450000</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A710">
         <v>710</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>35500000</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A711">
         <v>711</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>35550000</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A712">
         <v>712</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>35600000</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A713">
         <v>713</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>35650000</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A714">
         <v>714</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>35700000</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A715">
         <v>715</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>35750000</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A716">
         <v>716</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>35800000</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A717">
         <v>717</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>35850000</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A718">
         <v>718</v>
       </c>
@@ -7127,7 +7127,7 @@
         <v>35900000</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A719">
         <v>719</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>35950000</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A720">
         <v>720</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>36000000</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A721">
         <v>721</v>
       </c>
@@ -7154,7 +7154,7 @@
         <v>36050000</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A722">
         <v>722</v>
       </c>
@@ -7163,7 +7163,7 @@
         <v>36100000</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A723">
         <v>723</v>
       </c>
@@ -7172,7 +7172,7 @@
         <v>36150000</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A724">
         <v>724</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>36200000</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A725">
         <v>725</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>36250000</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A726">
         <v>726</v>
       </c>
@@ -7199,7 +7199,7 @@
         <v>36300000</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A727">
         <v>727</v>
       </c>
@@ -7208,7 +7208,7 @@
         <v>36350000</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A728">
         <v>728</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>36400000</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A729">
         <v>729</v>
       </c>
@@ -7226,7 +7226,7 @@
         <v>36450000</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A730">
         <v>730</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>36500000</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A731">
         <v>731</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>36550000</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A732">
         <v>732</v>
       </c>
@@ -7253,7 +7253,7 @@
         <v>36600000</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A733">
         <v>733</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>36650000</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A734">
         <v>734</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>36700000</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A735">
         <v>735</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>36750000</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A736">
         <v>736</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>36800000</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A737">
         <v>737</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>36850000</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A738">
         <v>738</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>36900000</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A739">
         <v>739</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>36950000</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A740">
         <v>740</v>
       </c>
@@ -7325,7 +7325,7 @@
         <v>37000000</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A741">
         <v>741</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>37050000</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A742">
         <v>742</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>37100000</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A743">
         <v>743</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>37150000</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A744">
         <v>744</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>37200000</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A745">
         <v>745</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>37250000</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A746">
         <v>746</v>
       </c>
@@ -7379,7 +7379,7 @@
         <v>37300000</v>
       </c>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A747">
         <v>747</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>37350000</v>
       </c>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A748">
         <v>748</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>37400000</v>
       </c>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A749">
         <v>749</v>
       </c>
@@ -7406,7 +7406,7 @@
         <v>37450000</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A750">
         <v>750</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>37500000</v>
       </c>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A751">
         <v>751</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>37550000</v>
       </c>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A752">
         <v>752</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>37600000</v>
       </c>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A753">
         <v>753</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>37650000</v>
       </c>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A754">
         <v>754</v>
       </c>
@@ -7451,7 +7451,7 @@
         <v>37700000</v>
       </c>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A755">
         <v>755</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>37750000</v>
       </c>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A756">
         <v>756</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>37800000</v>
       </c>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A757">
         <v>757</v>
       </c>
@@ -7478,7 +7478,7 @@
         <v>37850000</v>
       </c>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A758">
         <v>758</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>37900000</v>
       </c>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A759">
         <v>759</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>37950000</v>
       </c>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A760">
         <v>760</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>38000000</v>
       </c>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A761">
         <v>761</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>38050000</v>
       </c>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A762">
         <v>762</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>38100000</v>
       </c>
     </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A763">
         <v>763</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>38150000</v>
       </c>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A764">
         <v>764</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>38200000</v>
       </c>
     </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A765">
         <v>765</v>
       </c>
@@ -7550,7 +7550,7 @@
         <v>38250000</v>
       </c>
     </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A766">
         <v>766</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>38300000</v>
       </c>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A767">
         <v>767</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>38350000</v>
       </c>
     </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A768">
         <v>768</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>38400000</v>
       </c>
     </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A769">
         <v>769</v>
       </c>
@@ -7586,7 +7586,7 @@
         <v>38450000</v>
       </c>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A770">
         <v>770</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>38500000</v>
       </c>
     </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A771">
         <v>771</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>38550000</v>
       </c>
     </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A772">
         <v>772</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>38600000</v>
       </c>
     </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A773">
         <v>773</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>38650000</v>
       </c>
     </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A774">
         <v>774</v>
       </c>
@@ -7631,7 +7631,7 @@
         <v>38700000</v>
       </c>
     </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A775">
         <v>775</v>
       </c>
@@ -7640,7 +7640,7 @@
         <v>38750000</v>
       </c>
     </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A776">
         <v>776</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>38800000</v>
       </c>
     </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A777">
         <v>777</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>38850000</v>
       </c>
     </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A778">
         <v>778</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>38900000</v>
       </c>
     </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A779">
         <v>779</v>
       </c>
@@ -7676,7 +7676,7 @@
         <v>38950000</v>
       </c>
     </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A780">
         <v>780</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>39000000</v>
       </c>
     </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A781">
         <v>781</v>
       </c>
@@ -7694,7 +7694,7 @@
         <v>39050000</v>
       </c>
     </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A782">
         <v>782</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>39100000</v>
       </c>
     </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A783">
         <v>783</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>39150000</v>
       </c>
     </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A784">
         <v>784</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>39200000</v>
       </c>
     </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A785">
         <v>785</v>
       </c>
@@ -7730,7 +7730,7 @@
         <v>39250000</v>
       </c>
     </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A786">
         <v>786</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>39300000</v>
       </c>
     </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A787">
         <v>787</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>39350000</v>
       </c>
     </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A788">
         <v>788</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>39400000</v>
       </c>
     </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A789">
         <v>789</v>
       </c>
@@ -7766,7 +7766,7 @@
         <v>39450000</v>
       </c>
     </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A790">
         <v>790</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>39500000</v>
       </c>
     </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A791">
         <v>791</v>
       </c>
@@ -7784,7 +7784,7 @@
         <v>39550000</v>
       </c>
     </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A792">
         <v>792</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>39600000</v>
       </c>
     </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A793">
         <v>793</v>
       </c>
@@ -7802,7 +7802,7 @@
         <v>39650000</v>
       </c>
     </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A794">
         <v>794</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>39700000</v>
       </c>
     </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A795">
         <v>795</v>
       </c>
@@ -7820,7 +7820,7 @@
         <v>39750000</v>
       </c>
     </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A796">
         <v>796</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>39800000</v>
       </c>
     </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A797">
         <v>797</v>
       </c>
@@ -7838,7 +7838,7 @@
         <v>39850000</v>
       </c>
     </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A798">
         <v>798</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>39900000</v>
       </c>
     </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A799">
         <v>799</v>
       </c>
@@ -7856,7 +7856,7 @@
         <v>39950000</v>
       </c>
     </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A800">
         <v>800</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>40000000</v>
       </c>
     </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A801">
         <v>801</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>40050000</v>
       </c>
     </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A802">
         <v>802</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>40100000</v>
       </c>
     </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A803">
         <v>803</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>40150000</v>
       </c>
     </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A804">
         <v>804</v>
       </c>
@@ -7901,7 +7901,7 @@
         <v>40200000</v>
       </c>
     </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A805">
         <v>805</v>
       </c>
@@ -7910,7 +7910,7 @@
         <v>40250000</v>
       </c>
     </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A806">
         <v>806</v>
       </c>
@@ -7919,7 +7919,7 @@
         <v>40300000</v>
       </c>
     </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A807">
         <v>807</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>40350000</v>
       </c>
     </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A808">
         <v>808</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>40400000</v>
       </c>
     </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A809">
         <v>809</v>
       </c>
@@ -7946,7 +7946,7 @@
         <v>40450000</v>
       </c>
     </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A810">
         <v>810</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>40500000</v>
       </c>
     </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A811">
         <v>811</v>
       </c>
@@ -7964,7 +7964,7 @@
         <v>40550000</v>
       </c>
     </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A812">
         <v>812</v>
       </c>
@@ -7973,7 +7973,7 @@
         <v>40600000</v>
       </c>
     </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A813">
         <v>813</v>
       </c>
@@ -7982,7 +7982,7 @@
         <v>40650000</v>
       </c>
     </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A814">
         <v>814</v>
       </c>
@@ -7991,7 +7991,7 @@
         <v>40700000</v>
       </c>
     </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A815">
         <v>815</v>
       </c>
@@ -8000,7 +8000,7 @@
         <v>40750000</v>
       </c>
     </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A816">
         <v>816</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>40800000</v>
       </c>
     </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A817">
         <v>817</v>
       </c>
@@ -8018,7 +8018,7 @@
         <v>40850000</v>
       </c>
     </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A818">
         <v>818</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>40900000</v>
       </c>
     </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A819">
         <v>819</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>40950000</v>
       </c>
     </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A820">
         <v>820</v>
       </c>
@@ -8045,7 +8045,7 @@
         <v>41000000</v>
       </c>
     </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A821">
         <v>821</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>41050000</v>
       </c>
     </row>
-    <row r="822" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A822">
         <v>822</v>
       </c>
@@ -8063,7 +8063,7 @@
         <v>41100000</v>
       </c>
     </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A823">
         <v>823</v>
       </c>
@@ -8072,7 +8072,7 @@
         <v>41150000</v>
       </c>
     </row>
-    <row r="824" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A824">
         <v>824</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>41200000</v>
       </c>
     </row>
-    <row r="825" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A825">
         <v>825</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>41250000</v>
       </c>
     </row>
-    <row r="826" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A826">
         <v>826</v>
       </c>
@@ -8099,7 +8099,7 @@
         <v>41300000</v>
       </c>
     </row>
-    <row r="827" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A827">
         <v>827</v>
       </c>
@@ -8108,7 +8108,7 @@
         <v>41350000</v>
       </c>
     </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A828">
         <v>828</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>41400000</v>
       </c>
     </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A829">
         <v>829</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>41450000</v>
       </c>
     </row>
-    <row r="830" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A830">
         <v>830</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>41500000</v>
       </c>
     </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A831">
         <v>831</v>
       </c>
@@ -8144,7 +8144,7 @@
         <v>41550000</v>
       </c>
     </row>
-    <row r="832" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A832">
         <v>832</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>41600000</v>
       </c>
     </row>
-    <row r="833" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A833">
         <v>833</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>41650000</v>
       </c>
     </row>
-    <row r="834" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A834">
         <v>834</v>
       </c>
@@ -8171,7 +8171,7 @@
         <v>41700000</v>
       </c>
     </row>
-    <row r="835" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A835">
         <v>835</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>41750000</v>
       </c>
     </row>
-    <row r="836" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A836">
         <v>836</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>41800000</v>
       </c>
     </row>
-    <row r="837" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A837">
         <v>837</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>41850000</v>
       </c>
     </row>
-    <row r="838" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A838">
         <v>838</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>41900000</v>
       </c>
     </row>
-    <row r="839" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A839">
         <v>839</v>
       </c>
@@ -8216,7 +8216,7 @@
         <v>41950000</v>
       </c>
     </row>
-    <row r="840" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A840">
         <v>840</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>42000000</v>
       </c>
     </row>
-    <row r="841" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A841">
         <v>841</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>42050000</v>
       </c>
     </row>
-    <row r="842" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A842">
         <v>842</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>42100000</v>
       </c>
     </row>
-    <row r="843" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A843">
         <v>843</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>42150000</v>
       </c>
     </row>
-    <row r="844" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A844">
         <v>844</v>
       </c>
@@ -8261,7 +8261,7 @@
         <v>42200000</v>
       </c>
     </row>
-    <row r="845" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A845">
         <v>845</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>42250000</v>
       </c>
     </row>
-    <row r="846" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A846">
         <v>846</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>42300000</v>
       </c>
     </row>
-    <row r="847" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A847">
         <v>847</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>42350000</v>
       </c>
     </row>
-    <row r="848" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A848">
         <v>848</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>42400000</v>
       </c>
     </row>
-    <row r="849" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A849">
         <v>849</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>42450000</v>
       </c>
     </row>
-    <row r="850" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A850">
         <v>850</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>42500000</v>
       </c>
     </row>
-    <row r="851" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A851">
         <v>851</v>
       </c>
@@ -8324,7 +8324,7 @@
         <v>42550000</v>
       </c>
     </row>
-    <row r="852" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A852">
         <v>852</v>
       </c>
@@ -8333,7 +8333,7 @@
         <v>42600000</v>
       </c>
     </row>
-    <row r="853" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A853">
         <v>853</v>
       </c>
@@ -8342,7 +8342,7 @@
         <v>42650000</v>
       </c>
     </row>
-    <row r="854" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A854">
         <v>854</v>
       </c>
@@ -8351,7 +8351,7 @@
         <v>42700000</v>
       </c>
     </row>
-    <row r="855" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A855">
         <v>855</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>42750000</v>
       </c>
     </row>
-    <row r="856" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A856">
         <v>856</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>42800000</v>
       </c>
     </row>
-    <row r="857" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A857">
         <v>857</v>
       </c>
@@ -8378,7 +8378,7 @@
         <v>42850000</v>
       </c>
     </row>
-    <row r="858" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A858">
         <v>858</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>42900000</v>
       </c>
     </row>
-    <row r="859" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A859">
         <v>859</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>42950000</v>
       </c>
     </row>
-    <row r="860" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A860">
         <v>860</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>43000000</v>
       </c>
     </row>
-    <row r="861" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A861">
         <v>861</v>
       </c>
@@ -8414,7 +8414,7 @@
         <v>43050000</v>
       </c>
     </row>
-    <row r="862" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A862">
         <v>862</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>43100000</v>
       </c>
     </row>
-    <row r="863" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A863">
         <v>863</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>43150000</v>
       </c>
     </row>
-    <row r="864" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A864">
         <v>864</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>43200000</v>
       </c>
     </row>
-    <row r="865" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A865">
         <v>865</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>43250000</v>
       </c>
     </row>
-    <row r="866" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A866">
         <v>866</v>
       </c>
@@ -8459,7 +8459,7 @@
         <v>43300000</v>
       </c>
     </row>
-    <row r="867" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A867">
         <v>867</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>43350000</v>
       </c>
     </row>
-    <row r="868" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A868">
         <v>868</v>
       </c>
@@ -8477,7 +8477,7 @@
         <v>43400000</v>
       </c>
     </row>
-    <row r="869" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A869">
         <v>869</v>
       </c>
@@ -8486,7 +8486,7 @@
         <v>43450000</v>
       </c>
     </row>
-    <row r="870" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A870">
         <v>870</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>43500000</v>
       </c>
     </row>
-    <row r="871" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A871">
         <v>871</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>43550000</v>
       </c>
     </row>
-    <row r="872" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A872">
         <v>872</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>43600000</v>
       </c>
     </row>
-    <row r="873" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A873">
         <v>873</v>
       </c>
@@ -8522,7 +8522,7 @@
         <v>43650000</v>
       </c>
     </row>
-    <row r="874" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A874">
         <v>874</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>43700000</v>
       </c>
     </row>
-    <row r="875" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A875">
         <v>875</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>43750000</v>
       </c>
     </row>
-    <row r="876" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A876">
         <v>876</v>
       </c>
@@ -8549,7 +8549,7 @@
         <v>43800000</v>
       </c>
     </row>
-    <row r="877" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A877">
         <v>877</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>43850000</v>
       </c>
     </row>
-    <row r="878" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A878">
         <v>878</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>43900000</v>
       </c>
     </row>
-    <row r="879" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A879">
         <v>879</v>
       </c>
@@ -8576,7 +8576,7 @@
         <v>43950000</v>
       </c>
     </row>
-    <row r="880" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A880">
         <v>880</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>44000000</v>
       </c>
     </row>
-    <row r="881" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A881">
         <v>881</v>
       </c>
@@ -8594,7 +8594,7 @@
         <v>44050000</v>
       </c>
     </row>
-    <row r="882" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A882">
         <v>882</v>
       </c>
@@ -8603,7 +8603,7 @@
         <v>44100000</v>
       </c>
     </row>
-    <row r="883" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A883">
         <v>883</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>44150000</v>
       </c>
     </row>
-    <row r="884" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A884">
         <v>884</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>44200000</v>
       </c>
     </row>
-    <row r="885" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A885">
         <v>885</v>
       </c>
@@ -8630,7 +8630,7 @@
         <v>44250000</v>
       </c>
     </row>
-    <row r="886" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A886">
         <v>886</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>44300000</v>
       </c>
     </row>
-    <row r="887" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A887">
         <v>887</v>
       </c>
@@ -8648,7 +8648,7 @@
         <v>44350000</v>
       </c>
     </row>
-    <row r="888" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A888">
         <v>888</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>44400000</v>
       </c>
     </row>
-    <row r="889" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A889">
         <v>889</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>44450000</v>
       </c>
     </row>
-    <row r="890" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A890">
         <v>890</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>44500000</v>
       </c>
     </row>
-    <row r="891" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A891">
         <v>891</v>
       </c>
@@ -8684,7 +8684,7 @@
         <v>44550000</v>
       </c>
     </row>
-    <row r="892" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A892">
         <v>892</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>44600000</v>
       </c>
     </row>
-    <row r="893" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A893">
         <v>893</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>44650000</v>
       </c>
     </row>
-    <row r="894" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A894">
         <v>894</v>
       </c>
@@ -8711,7 +8711,7 @@
         <v>44700000</v>
       </c>
     </row>
-    <row r="895" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A895">
         <v>895</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>44750000</v>
       </c>
     </row>
-    <row r="896" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A896">
         <v>896</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>44800000</v>
       </c>
     </row>
-    <row r="897" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A897">
         <v>897</v>
       </c>
@@ -8738,7 +8738,7 @@
         <v>44850000</v>
       </c>
     </row>
-    <row r="898" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A898">
         <v>898</v>
       </c>
@@ -8747,7 +8747,7 @@
         <v>44900000</v>
       </c>
     </row>
-    <row r="899" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A899">
         <v>899</v>
       </c>
@@ -8756,7 +8756,7 @@
         <v>44950000</v>
       </c>
     </row>
-    <row r="900" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A900">
         <v>900</v>
       </c>
@@ -8765,7 +8765,7 @@
         <v>45000000</v>
       </c>
     </row>
-    <row r="901" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A901">
         <v>901</v>
       </c>
@@ -8774,7 +8774,7 @@
         <v>45050000</v>
       </c>
     </row>
-    <row r="902" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A902">
         <v>902</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>45100000</v>
       </c>
     </row>
-    <row r="903" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A903">
         <v>903</v>
       </c>
@@ -8792,7 +8792,7 @@
         <v>45150000</v>
       </c>
     </row>
-    <row r="904" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A904">
         <v>904</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>45200000</v>
       </c>
     </row>
-    <row r="905" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A905">
         <v>905</v>
       </c>
@@ -8810,7 +8810,7 @@
         <v>45250000</v>
       </c>
     </row>
-    <row r="906" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A906">
         <v>906</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>45300000</v>
       </c>
     </row>
-    <row r="907" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A907">
         <v>907</v>
       </c>
@@ -8828,7 +8828,7 @@
         <v>45350000</v>
       </c>
     </row>
-    <row r="908" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A908">
         <v>908</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>45400000</v>
       </c>
     </row>
-    <row r="909" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A909">
         <v>909</v>
       </c>
@@ -8846,7 +8846,7 @@
         <v>45450000</v>
       </c>
     </row>
-    <row r="910" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A910">
         <v>910</v>
       </c>
@@ -8855,7 +8855,7 @@
         <v>45500000</v>
       </c>
     </row>
-    <row r="911" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A911">
         <v>911</v>
       </c>
@@ -8864,7 +8864,7 @@
         <v>45550000</v>
       </c>
     </row>
-    <row r="912" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A912">
         <v>912</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>45600000</v>
       </c>
     </row>
-    <row r="913" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A913">
         <v>913</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>45650000</v>
       </c>
     </row>
-    <row r="914" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A914">
         <v>914</v>
       </c>
@@ -8891,7 +8891,7 @@
         <v>45700000</v>
       </c>
     </row>
-    <row r="915" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A915">
         <v>915</v>
       </c>
@@ -8900,7 +8900,7 @@
         <v>45750000</v>
       </c>
     </row>
-    <row r="916" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A916">
         <v>916</v>
       </c>
@@ -8909,7 +8909,7 @@
         <v>45800000</v>
       </c>
     </row>
-    <row r="917" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A917">
         <v>917</v>
       </c>
@@ -8918,7 +8918,7 @@
         <v>45850000</v>
       </c>
     </row>
-    <row r="918" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A918">
         <v>918</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>45900000</v>
       </c>
     </row>
-    <row r="919" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A919">
         <v>919</v>
       </c>
@@ -8936,7 +8936,7 @@
         <v>45950000</v>
       </c>
     </row>
-    <row r="920" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A920">
         <v>920</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>46000000</v>
       </c>
     </row>
-    <row r="921" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A921">
         <v>921</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v>46050000</v>
       </c>
     </row>
-    <row r="922" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A922">
         <v>922</v>
       </c>
@@ -8963,7 +8963,7 @@
         <v>46100000</v>
       </c>
     </row>
-    <row r="923" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A923">
         <v>923</v>
       </c>
@@ -8972,7 +8972,7 @@
         <v>46150000</v>
       </c>
     </row>
-    <row r="924" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A924">
         <v>924</v>
       </c>
@@ -8981,7 +8981,7 @@
         <v>46200000</v>
       </c>
     </row>
-    <row r="925" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A925">
         <v>925</v>
       </c>
@@ -8990,7 +8990,7 @@
         <v>46250000</v>
       </c>
     </row>
-    <row r="926" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A926">
         <v>926</v>
       </c>
@@ -8999,7 +8999,7 @@
         <v>46300000</v>
       </c>
     </row>
-    <row r="927" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A927">
         <v>927</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>46350000</v>
       </c>
     </row>
-    <row r="928" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A928">
         <v>928</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>46400000</v>
       </c>
     </row>
-    <row r="929" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A929">
         <v>929</v>
       </c>
@@ -9026,7 +9026,7 @@
         <v>46450000</v>
       </c>
     </row>
-    <row r="930" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A930">
         <v>930</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>46500000</v>
       </c>
     </row>
-    <row r="931" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A931">
         <v>931</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>46550000</v>
       </c>
     </row>
-    <row r="932" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A932">
         <v>932</v>
       </c>
@@ -9053,7 +9053,7 @@
         <v>46600000</v>
       </c>
     </row>
-    <row r="933" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A933">
         <v>933</v>
       </c>
@@ -9062,7 +9062,7 @@
         <v>46650000</v>
       </c>
     </row>
-    <row r="934" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A934">
         <v>934</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>46700000</v>
       </c>
     </row>
-    <row r="935" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A935">
         <v>935</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>46750000</v>
       </c>
     </row>
-    <row r="936" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A936">
         <v>936</v>
       </c>
@@ -9089,7 +9089,7 @@
         <v>46800000</v>
       </c>
     </row>
-    <row r="937" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A937">
         <v>937</v>
       </c>
@@ -9098,7 +9098,7 @@
         <v>46850000</v>
       </c>
     </row>
-    <row r="938" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A938">
         <v>938</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>46900000</v>
       </c>
     </row>
-    <row r="939" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A939">
         <v>939</v>
       </c>
@@ -9116,7 +9116,7 @@
         <v>46950000</v>
       </c>
     </row>
-    <row r="940" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A940">
         <v>940</v>
       </c>
@@ -9125,7 +9125,7 @@
         <v>47000000</v>
       </c>
     </row>
-    <row r="941" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A941">
         <v>941</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>47050000</v>
       </c>
     </row>
-    <row r="942" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A942">
         <v>942</v>
       </c>
@@ -9143,7 +9143,7 @@
         <v>47100000</v>
       </c>
     </row>
-    <row r="943" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A943">
         <v>943</v>
       </c>
@@ -9152,7 +9152,7 @@
         <v>47150000</v>
       </c>
     </row>
-    <row r="944" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A944">
         <v>944</v>
       </c>
@@ -9161,7 +9161,7 @@
         <v>47200000</v>
       </c>
     </row>
-    <row r="945" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A945">
         <v>945</v>
       </c>
@@ -9170,7 +9170,7 @@
         <v>47250000</v>
       </c>
     </row>
-    <row r="946" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A946">
         <v>946</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>47300000</v>
       </c>
     </row>
-    <row r="947" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A947">
         <v>947</v>
       </c>
@@ -9188,7 +9188,7 @@
         <v>47350000</v>
       </c>
     </row>
-    <row r="948" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A948">
         <v>948</v>
       </c>
@@ -9197,7 +9197,7 @@
         <v>47400000</v>
       </c>
     </row>
-    <row r="949" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A949">
         <v>949</v>
       </c>
@@ -9206,7 +9206,7 @@
         <v>47450000</v>
       </c>
     </row>
-    <row r="950" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A950">
         <v>950</v>
       </c>
@@ -9215,7 +9215,7 @@
         <v>47500000</v>
       </c>
     </row>
-    <row r="951" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A951">
         <v>951</v>
       </c>
@@ -9224,7 +9224,7 @@
         <v>47550000</v>
       </c>
     </row>
-    <row r="952" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A952">
         <v>952</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>47600000</v>
       </c>
     </row>
-    <row r="953" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A953">
         <v>953</v>
       </c>
@@ -9242,7 +9242,7 @@
         <v>47650000</v>
       </c>
     </row>
-    <row r="954" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A954">
         <v>954</v>
       </c>
@@ -9251,7 +9251,7 @@
         <v>47700000</v>
       </c>
     </row>
-    <row r="955" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A955">
         <v>955</v>
       </c>
@@ -9260,7 +9260,7 @@
         <v>47750000</v>
       </c>
     </row>
-    <row r="956" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A956">
         <v>956</v>
       </c>
@@ -9269,7 +9269,7 @@
         <v>47800000</v>
       </c>
     </row>
-    <row r="957" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A957">
         <v>957</v>
       </c>
@@ -9278,7 +9278,7 @@
         <v>47850000</v>
       </c>
     </row>
-    <row r="958" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A958">
         <v>958</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>47900000</v>
       </c>
     </row>
-    <row r="959" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A959">
         <v>959</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>47950000</v>
       </c>
     </row>
-    <row r="960" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A960">
         <v>960</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>48000000</v>
       </c>
     </row>
-    <row r="961" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A961">
         <v>961</v>
       </c>
@@ -9314,7 +9314,7 @@
         <v>48050000</v>
       </c>
     </row>
-    <row r="962" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A962">
         <v>962</v>
       </c>
@@ -9323,7 +9323,7 @@
         <v>48100000</v>
       </c>
     </row>
-    <row r="963" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A963">
         <v>963</v>
       </c>
@@ -9332,7 +9332,7 @@
         <v>48150000</v>
       </c>
     </row>
-    <row r="964" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A964">
         <v>964</v>
       </c>
@@ -9341,7 +9341,7 @@
         <v>48200000</v>
       </c>
     </row>
-    <row r="965" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A965">
         <v>965</v>
       </c>
@@ -9350,7 +9350,7 @@
         <v>48250000</v>
       </c>
     </row>
-    <row r="966" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A966">
         <v>966</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>48300000</v>
       </c>
     </row>
-    <row r="967" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A967">
         <v>967</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>48350000</v>
       </c>
     </row>
-    <row r="968" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A968">
         <v>968</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>48400000</v>
       </c>
     </row>
-    <row r="969" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A969">
         <v>969</v>
       </c>
@@ -9386,7 +9386,7 @@
         <v>48450000</v>
       </c>
     </row>
-    <row r="970" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A970">
         <v>970</v>
       </c>
@@ -9395,7 +9395,7 @@
         <v>48500000</v>
       </c>
     </row>
-    <row r="971" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A971">
         <v>971</v>
       </c>
@@ -9404,7 +9404,7 @@
         <v>48550000</v>
       </c>
     </row>
-    <row r="972" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A972">
         <v>972</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>48600000</v>
       </c>
     </row>
-    <row r="973" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A973">
         <v>973</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>48650000</v>
       </c>
     </row>
-    <row r="974" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A974">
         <v>974</v>
       </c>
@@ -9431,7 +9431,7 @@
         <v>48700000</v>
       </c>
     </row>
-    <row r="975" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A975">
         <v>975</v>
       </c>
@@ -9440,7 +9440,7 @@
         <v>48750000</v>
       </c>
     </row>
-    <row r="976" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A976">
         <v>976</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>48800000</v>
       </c>
     </row>
-    <row r="977" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A977">
         <v>977</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>48850000</v>
       </c>
     </row>
-    <row r="978" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A978">
         <v>978</v>
       </c>
@@ -9467,7 +9467,7 @@
         <v>48900000</v>
       </c>
     </row>
-    <row r="979" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A979">
         <v>979</v>
       </c>
@@ -9476,7 +9476,7 @@
         <v>48950000</v>
       </c>
     </row>
-    <row r="980" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A980">
         <v>980</v>
       </c>
@@ -9485,7 +9485,7 @@
         <v>49000000</v>
       </c>
     </row>
-    <row r="981" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A981">
         <v>981</v>
       </c>
@@ -9494,7 +9494,7 @@
         <v>49050000</v>
       </c>
     </row>
-    <row r="982" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A982">
         <v>982</v>
       </c>
@@ -9503,7 +9503,7 @@
         <v>49100000</v>
       </c>
     </row>
-    <row r="983" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A983">
         <v>983</v>
       </c>
@@ -9512,7 +9512,7 @@
         <v>49150000</v>
       </c>
     </row>
-    <row r="984" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A984">
         <v>984</v>
       </c>
@@ -9521,7 +9521,7 @@
         <v>49200000</v>
       </c>
     </row>
-    <row r="985" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A985">
         <v>985</v>
       </c>
@@ -9530,7 +9530,7 @@
         <v>49250000</v>
       </c>
     </row>
-    <row r="986" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A986">
         <v>986</v>
       </c>
@@ -9539,7 +9539,7 @@
         <v>49300000</v>
       </c>
     </row>
-    <row r="987" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A987">
         <v>987</v>
       </c>
@@ -9548,7 +9548,7 @@
         <v>49350000</v>
       </c>
     </row>
-    <row r="988" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A988">
         <v>988</v>
       </c>
@@ -9557,7 +9557,7 @@
         <v>49400000</v>
       </c>
     </row>
-    <row r="989" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A989">
         <v>989</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>49450000</v>
       </c>
     </row>
-    <row r="990" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A990">
         <v>990</v>
       </c>
@@ -9575,7 +9575,7 @@
         <v>49500000</v>
       </c>
     </row>
-    <row r="991" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A991">
         <v>991</v>
       </c>
@@ -9584,7 +9584,7 @@
         <v>49550000</v>
       </c>
     </row>
-    <row r="992" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A992">
         <v>992</v>
       </c>
@@ -9593,7 +9593,7 @@
         <v>49600000</v>
       </c>
     </row>
-    <row r="993" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A993">
         <v>993</v>
       </c>
@@ -9602,7 +9602,7 @@
         <v>49650000</v>
       </c>
     </row>
-    <row r="994" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A994">
         <v>994</v>
       </c>
@@ -9611,7 +9611,7 @@
         <v>49700000</v>
       </c>
     </row>
-    <row r="995" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A995">
         <v>995</v>
       </c>
@@ -9620,7 +9620,7 @@
         <v>49750000</v>
       </c>
     </row>
-    <row r="996" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A996">
         <v>996</v>
       </c>
@@ -9629,7 +9629,7 @@
         <v>49800000</v>
       </c>
     </row>
-    <row r="997" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A997">
         <v>997</v>
       </c>
@@ -9638,7 +9638,7 @@
         <v>49850000</v>
       </c>
     </row>
-    <row r="998" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A998">
         <v>998</v>
       </c>
@@ -9647,7 +9647,7 @@
         <v>49900000</v>
       </c>
     </row>
-    <row r="999" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A999">
         <v>999</v>
       </c>
@@ -9656,7 +9656,7 @@
         <v>49950000</v>
       </c>
     </row>
-    <row r="1000" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1000">
         <v>1000</v>
       </c>

--- a/Assets/06.Table/PetEquipment.xlsx
+++ b/Assets/06.Table/PetEquipment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EFBE27-6298-4402-BC71-C0E2949D25F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143994FF-B9BE-4693-B229-A8B70150FEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -608,34 +608,34 @@
         <v>10000000</v>
       </c>
       <c r="E3">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H3">
         <v>9</v>
       </c>
       <c r="I3">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1E-4</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
         <v>0</v>
-      </c>
-      <c r="N3">
-        <v>1E-3</v>
       </c>
       <c r="O3" t="s">
         <v>19</v>

--- a/Assets/06.Table/PetEquipment.xlsx
+++ b/Assets/06.Table/PetEquipment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143994FF-B9BE-4693-B229-A8B70150FEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6A5969-8A6E-4FAE-AB2F-ACE21B6CC779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetEquipment" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,6 +113,14 @@
   </si>
   <si>
     <t>백호 부적(1성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>petequip2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주작 반지(1성)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,30 +485,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.296875" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" customWidth="1"/>
-    <col min="3" max="3" width="13.59765625" customWidth="1"/>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="19.09765625" customWidth="1"/>
-    <col min="6" max="6" width="21.296875" customWidth="1"/>
-    <col min="7" max="7" width="26.59765625" customWidth="1"/>
-    <col min="8" max="8" width="26.09765625" customWidth="1"/>
-    <col min="9" max="9" width="14.296875" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
+    <col min="6" max="6" width="21.25" customWidth="1"/>
+    <col min="7" max="7" width="26.625" customWidth="1"/>
+    <col min="8" max="8" width="26.125" customWidth="1"/>
+    <col min="9" max="9" width="14.25" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="26.19921875" customWidth="1"/>
-    <col min="12" max="12" width="17.59765625" customWidth="1"/>
-    <col min="13" max="13" width="18.69921875" customWidth="1"/>
+    <col min="11" max="11" width="26.25" customWidth="1"/>
+    <col min="12" max="12" width="17.625" customWidth="1"/>
+    <col min="13" max="13" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -547,7 +555,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -594,7 +602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -639,6 +647,53 @@
       </c>
       <c r="O3" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>10000000</v>
+      </c>
+      <c r="E4">
+        <v>30000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>1000</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>22</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -656,12 +711,12 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="97.19921875" customWidth="1"/>
+    <col min="3" max="3" width="97.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -674,7 +729,7 @@
         <v>25025000000</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -683,7 +738,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -692,7 +747,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -701,7 +756,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -710,7 +765,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -719,7 +774,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -728,7 +783,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -737,7 +792,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -746,7 +801,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -755,7 +810,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -764,7 +819,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -773,7 +828,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -782,7 +837,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -791,7 +846,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -800,7 +855,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -809,7 +864,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -818,7 +873,7 @@
         <v>850000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -827,7 +882,7 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -836,7 +891,7 @@
         <v>950000</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -845,7 +900,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -854,7 +909,7 @@
         <v>1050000</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>22</v>
       </c>
@@ -863,7 +918,7 @@
         <v>1100000</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
@@ -872,7 +927,7 @@
         <v>1150000</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24</v>
       </c>
@@ -881,7 +936,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25</v>
       </c>
@@ -890,7 +945,7 @@
         <v>1250000</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>26</v>
       </c>
@@ -899,7 +954,7 @@
         <v>1300000</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>27</v>
       </c>
@@ -908,7 +963,7 @@
         <v>1350000</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>28</v>
       </c>
@@ -917,7 +972,7 @@
         <v>1400000</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>29</v>
       </c>
@@ -926,7 +981,7 @@
         <v>1450000</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>30</v>
       </c>
@@ -935,7 +990,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>31</v>
       </c>
@@ -944,7 +999,7 @@
         <v>1550000</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>32</v>
       </c>
@@ -953,7 +1008,7 @@
         <v>1600000</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>33</v>
       </c>
@@ -962,7 +1017,7 @@
         <v>1650000</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>34</v>
       </c>
@@ -971,7 +1026,7 @@
         <v>1700000</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>35</v>
       </c>
@@ -980,7 +1035,7 @@
         <v>1750000</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>36</v>
       </c>
@@ -989,7 +1044,7 @@
         <v>1800000</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>37</v>
       </c>
@@ -998,7 +1053,7 @@
         <v>1850000</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>38</v>
       </c>
@@ -1007,7 +1062,7 @@
         <v>1900000</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>39</v>
       </c>
@@ -1016,7 +1071,7 @@
         <v>1950000</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>40</v>
       </c>
@@ -1025,7 +1080,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>41</v>
       </c>
@@ -1034,7 +1089,7 @@
         <v>2050000</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>42</v>
       </c>
@@ -1043,7 +1098,7 @@
         <v>2100000</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>43</v>
       </c>
@@ -1052,7 +1107,7 @@
         <v>2150000</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>44</v>
       </c>
@@ -1061,7 +1116,7 @@
         <v>2200000</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>45</v>
       </c>
@@ -1070,7 +1125,7 @@
         <v>2250000</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>46</v>
       </c>
@@ -1079,7 +1134,7 @@
         <v>2300000</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>47</v>
       </c>
@@ -1088,7 +1143,7 @@
         <v>2350000</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>48</v>
       </c>
@@ -1097,7 +1152,7 @@
         <v>2400000</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>49</v>
       </c>
@@ -1106,7 +1161,7 @@
         <v>2450000</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>50</v>
       </c>
@@ -1115,7 +1170,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>51</v>
       </c>
@@ -1124,7 +1179,7 @@
         <v>2550000</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>52</v>
       </c>
@@ -1133,7 +1188,7 @@
         <v>2600000</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>53</v>
       </c>
@@ -1142,7 +1197,7 @@
         <v>2650000</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>54</v>
       </c>
@@ -1151,7 +1206,7 @@
         <v>2700000</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>55</v>
       </c>
@@ -1160,7 +1215,7 @@
         <v>2750000</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>56</v>
       </c>
@@ -1169,7 +1224,7 @@
         <v>2800000</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>57</v>
       </c>
@@ -1178,7 +1233,7 @@
         <v>2850000</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>58</v>
       </c>
@@ -1187,7 +1242,7 @@
         <v>2900000</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>59</v>
       </c>
@@ -1196,7 +1251,7 @@
         <v>2950000</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>60</v>
       </c>
@@ -1205,7 +1260,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>61</v>
       </c>
@@ -1214,7 +1269,7 @@
         <v>3050000</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>62</v>
       </c>
@@ -1223,7 +1278,7 @@
         <v>3100000</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>63</v>
       </c>
@@ -1232,7 +1287,7 @@
         <v>3150000</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>64</v>
       </c>
@@ -1241,7 +1296,7 @@
         <v>3200000</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>65</v>
       </c>
@@ -1250,7 +1305,7 @@
         <v>3250000</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>66</v>
       </c>
@@ -1259,7 +1314,7 @@
         <v>3300000</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>67</v>
       </c>
@@ -1268,7 +1323,7 @@
         <v>3350000</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>68</v>
       </c>
@@ -1277,7 +1332,7 @@
         <v>3400000</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>69</v>
       </c>
@@ -1286,7 +1341,7 @@
         <v>3450000</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>70</v>
       </c>
@@ -1295,7 +1350,7 @@
         <v>3500000</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>71</v>
       </c>
@@ -1304,7 +1359,7 @@
         <v>3550000</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>72</v>
       </c>
@@ -1313,7 +1368,7 @@
         <v>3600000</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>73</v>
       </c>
@@ -1322,7 +1377,7 @@
         <v>3650000</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>74</v>
       </c>
@@ -1331,7 +1386,7 @@
         <v>3700000</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>75</v>
       </c>
@@ -1340,7 +1395,7 @@
         <v>3750000</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>76</v>
       </c>
@@ -1349,7 +1404,7 @@
         <v>3800000</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>77</v>
       </c>
@@ -1358,7 +1413,7 @@
         <v>3850000</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>78</v>
       </c>
@@ -1367,7 +1422,7 @@
         <v>3900000</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>79</v>
       </c>
@@ -1376,7 +1431,7 @@
         <v>3950000</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>80</v>
       </c>
@@ -1385,7 +1440,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>81</v>
       </c>
@@ -1394,7 +1449,7 @@
         <v>4050000</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>82</v>
       </c>
@@ -1403,7 +1458,7 @@
         <v>4100000</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>83</v>
       </c>
@@ -1412,7 +1467,7 @@
         <v>4150000</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>84</v>
       </c>
@@ -1421,7 +1476,7 @@
         <v>4200000</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>85</v>
       </c>
@@ -1430,7 +1485,7 @@
         <v>4250000</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>86</v>
       </c>
@@ -1439,7 +1494,7 @@
         <v>4300000</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>87</v>
       </c>
@@ -1448,7 +1503,7 @@
         <v>4350000</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>88</v>
       </c>
@@ -1457,7 +1512,7 @@
         <v>4400000</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>89</v>
       </c>
@@ -1466,7 +1521,7 @@
         <v>4450000</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>90</v>
       </c>
@@ -1475,7 +1530,7 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>91</v>
       </c>
@@ -1484,7 +1539,7 @@
         <v>4550000</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>92</v>
       </c>
@@ -1493,7 +1548,7 @@
         <v>4600000</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>93</v>
       </c>
@@ -1502,7 +1557,7 @@
         <v>4650000</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>94</v>
       </c>
@@ -1511,7 +1566,7 @@
         <v>4700000</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>95</v>
       </c>
@@ -1520,7 +1575,7 @@
         <v>4750000</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>96</v>
       </c>
@@ -1529,7 +1584,7 @@
         <v>4800000</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>97</v>
       </c>
@@ -1538,7 +1593,7 @@
         <v>4850000</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>98</v>
       </c>
@@ -1547,7 +1602,7 @@
         <v>4900000</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>99</v>
       </c>
@@ -1556,7 +1611,7 @@
         <v>4950000</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>100</v>
       </c>
@@ -1565,7 +1620,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>101</v>
       </c>
@@ -1574,7 +1629,7 @@
         <v>5050000</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>102</v>
       </c>
@@ -1583,7 +1638,7 @@
         <v>5100000</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>103</v>
       </c>
@@ -1592,7 +1647,7 @@
         <v>5150000</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>104</v>
       </c>
@@ -1601,7 +1656,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>105</v>
       </c>
@@ -1610,7 +1665,7 @@
         <v>5250000</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>106</v>
       </c>
@@ -1619,7 +1674,7 @@
         <v>5300000</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>107</v>
       </c>
@@ -1628,7 +1683,7 @@
         <v>5350000</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>108</v>
       </c>
@@ -1637,7 +1692,7 @@
         <v>5400000</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>109</v>
       </c>
@@ -1646,7 +1701,7 @@
         <v>5450000</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>110</v>
       </c>
@@ -1655,7 +1710,7 @@
         <v>5500000</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>111</v>
       </c>
@@ -1664,7 +1719,7 @@
         <v>5550000</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>112</v>
       </c>
@@ -1673,7 +1728,7 @@
         <v>5600000</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>113</v>
       </c>
@@ -1682,7 +1737,7 @@
         <v>5650000</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>114</v>
       </c>
@@ -1691,7 +1746,7 @@
         <v>5700000</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>115</v>
       </c>
@@ -1700,7 +1755,7 @@
         <v>5750000</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>116</v>
       </c>
@@ -1709,7 +1764,7 @@
         <v>5800000</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>117</v>
       </c>
@@ -1718,7 +1773,7 @@
         <v>5850000</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>118</v>
       </c>
@@ -1727,7 +1782,7 @@
         <v>5900000</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>119</v>
       </c>
@@ -1736,7 +1791,7 @@
         <v>5950000</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>120</v>
       </c>
@@ -1745,7 +1800,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>121</v>
       </c>
@@ -1754,7 +1809,7 @@
         <v>6050000</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>122</v>
       </c>
@@ -1763,7 +1818,7 @@
         <v>6100000</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>123</v>
       </c>
@@ -1772,7 +1827,7 @@
         <v>6150000</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>124</v>
       </c>
@@ -1781,7 +1836,7 @@
         <v>6200000</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>125</v>
       </c>
@@ -1790,7 +1845,7 @@
         <v>6250000</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>126</v>
       </c>
@@ -1799,7 +1854,7 @@
         <v>6300000</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>127</v>
       </c>
@@ -1808,7 +1863,7 @@
         <v>6350000</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>128</v>
       </c>
@@ -1817,7 +1872,7 @@
         <v>6400000</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>129</v>
       </c>
@@ -1826,7 +1881,7 @@
         <v>6450000</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>130</v>
       </c>
@@ -1835,7 +1890,7 @@
         <v>6500000</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>131</v>
       </c>
@@ -1844,7 +1899,7 @@
         <v>6550000</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>132</v>
       </c>
@@ -1853,7 +1908,7 @@
         <v>6600000</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>133</v>
       </c>
@@ -1862,7 +1917,7 @@
         <v>6650000</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>134</v>
       </c>
@@ -1871,7 +1926,7 @@
         <v>6700000</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>135</v>
       </c>
@@ -1880,7 +1935,7 @@
         <v>6750000</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>136</v>
       </c>
@@ -1889,7 +1944,7 @@
         <v>6800000</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>137</v>
       </c>
@@ -1898,7 +1953,7 @@
         <v>6850000</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>138</v>
       </c>
@@ -1907,7 +1962,7 @@
         <v>6900000</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>139</v>
       </c>
@@ -1916,7 +1971,7 @@
         <v>6950000</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>140</v>
       </c>
@@ -1925,7 +1980,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>141</v>
       </c>
@@ -1934,7 +1989,7 @@
         <v>7050000</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>142</v>
       </c>
@@ -1943,7 +1998,7 @@
         <v>7100000</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>143</v>
       </c>
@@ -1952,7 +2007,7 @@
         <v>7150000</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>144</v>
       </c>
@@ -1961,7 +2016,7 @@
         <v>7200000</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>145</v>
       </c>
@@ -1970,7 +2025,7 @@
         <v>7250000</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>146</v>
       </c>
@@ -1979,7 +2034,7 @@
         <v>7300000</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>147</v>
       </c>
@@ -1988,7 +2043,7 @@
         <v>7350000</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>148</v>
       </c>
@@ -1997,7 +2052,7 @@
         <v>7400000</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>149</v>
       </c>
@@ -2006,7 +2061,7 @@
         <v>7450000</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>150</v>
       </c>
@@ -2015,7 +2070,7 @@
         <v>7500000</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>151</v>
       </c>
@@ -2024,7 +2079,7 @@
         <v>7550000</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>152</v>
       </c>
@@ -2033,7 +2088,7 @@
         <v>7600000</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>153</v>
       </c>
@@ -2042,7 +2097,7 @@
         <v>7650000</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>154</v>
       </c>
@@ -2051,7 +2106,7 @@
         <v>7700000</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>155</v>
       </c>
@@ -2060,7 +2115,7 @@
         <v>7750000</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>156</v>
       </c>
@@ -2069,7 +2124,7 @@
         <v>7800000</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>157</v>
       </c>
@@ -2078,7 +2133,7 @@
         <v>7850000</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>158</v>
       </c>
@@ -2087,7 +2142,7 @@
         <v>7900000</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>159</v>
       </c>
@@ -2096,7 +2151,7 @@
         <v>7950000</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>160</v>
       </c>
@@ -2105,7 +2160,7 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>161</v>
       </c>
@@ -2114,7 +2169,7 @@
         <v>8050000</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>162</v>
       </c>
@@ -2123,7 +2178,7 @@
         <v>8100000</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>163</v>
       </c>
@@ -2132,7 +2187,7 @@
         <v>8150000</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>164</v>
       </c>
@@ -2141,7 +2196,7 @@
         <v>8200000</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>165</v>
       </c>
@@ -2150,7 +2205,7 @@
         <v>8250000</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>166</v>
       </c>
@@ -2159,7 +2214,7 @@
         <v>8300000</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>167</v>
       </c>
@@ -2168,7 +2223,7 @@
         <v>8350000</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>168</v>
       </c>
@@ -2177,7 +2232,7 @@
         <v>8400000</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>169</v>
       </c>
@@ -2186,7 +2241,7 @@
         <v>8450000</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>170</v>
       </c>
@@ -2195,7 +2250,7 @@
         <v>8500000</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>171</v>
       </c>
@@ -2204,7 +2259,7 @@
         <v>8550000</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>172</v>
       </c>
@@ -2213,7 +2268,7 @@
         <v>8600000</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>173</v>
       </c>
@@ -2222,7 +2277,7 @@
         <v>8650000</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>174</v>
       </c>
@@ -2231,7 +2286,7 @@
         <v>8700000</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>175</v>
       </c>
@@ -2240,7 +2295,7 @@
         <v>8750000</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>176</v>
       </c>
@@ -2249,7 +2304,7 @@
         <v>8800000</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>177</v>
       </c>
@@ -2258,7 +2313,7 @@
         <v>8850000</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>178</v>
       </c>
@@ -2267,7 +2322,7 @@
         <v>8900000</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>179</v>
       </c>
@@ -2276,7 +2331,7 @@
         <v>8950000</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>180</v>
       </c>
@@ -2285,7 +2340,7 @@
         <v>9000000</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>181</v>
       </c>
@@ -2294,7 +2349,7 @@
         <v>9050000</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>182</v>
       </c>
@@ -2303,7 +2358,7 @@
         <v>9100000</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>183</v>
       </c>
@@ -2312,7 +2367,7 @@
         <v>9150000</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>184</v>
       </c>
@@ -2321,7 +2376,7 @@
         <v>9200000</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>185</v>
       </c>
@@ -2330,7 +2385,7 @@
         <v>9250000</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>186</v>
       </c>
@@ -2339,7 +2394,7 @@
         <v>9300000</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>187</v>
       </c>
@@ -2348,7 +2403,7 @@
         <v>9350000</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>188</v>
       </c>
@@ -2357,7 +2412,7 @@
         <v>9400000</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>189</v>
       </c>
@@ -2366,7 +2421,7 @@
         <v>9450000</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>190</v>
       </c>
@@ -2375,7 +2430,7 @@
         <v>9500000</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>191</v>
       </c>
@@ -2384,7 +2439,7 @@
         <v>9550000</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>192</v>
       </c>
@@ -2393,7 +2448,7 @@
         <v>9600000</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>193</v>
       </c>
@@ -2402,7 +2457,7 @@
         <v>9650000</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>194</v>
       </c>
@@ -2411,7 +2466,7 @@
         <v>9700000</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>195</v>
       </c>
@@ -2420,7 +2475,7 @@
         <v>9750000</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>196</v>
       </c>
@@ -2429,7 +2484,7 @@
         <v>9800000</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>197</v>
       </c>
@@ -2438,7 +2493,7 @@
         <v>9850000</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>198</v>
       </c>
@@ -2447,7 +2502,7 @@
         <v>9900000</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>199</v>
       </c>
@@ -2456,7 +2511,7 @@
         <v>9950000</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>200</v>
       </c>
@@ -2465,7 +2520,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>201</v>
       </c>
@@ -2474,7 +2529,7 @@
         <v>10050000</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>202</v>
       </c>
@@ -2483,7 +2538,7 @@
         <v>10100000</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>203</v>
       </c>
@@ -2492,7 +2547,7 @@
         <v>10150000</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>204</v>
       </c>
@@ -2501,7 +2556,7 @@
         <v>10200000</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>205</v>
       </c>
@@ -2510,7 +2565,7 @@
         <v>10250000</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>206</v>
       </c>
@@ -2519,7 +2574,7 @@
         <v>10300000</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>207</v>
       </c>
@@ -2528,7 +2583,7 @@
         <v>10350000</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>208</v>
       </c>
@@ -2537,7 +2592,7 @@
         <v>10400000</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>209</v>
       </c>
@@ -2546,7 +2601,7 @@
         <v>10450000</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>210</v>
       </c>
@@ -2555,7 +2610,7 @@
         <v>10500000</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>211</v>
       </c>
@@ -2564,7 +2619,7 @@
         <v>10550000</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>212</v>
       </c>
@@ -2573,7 +2628,7 @@
         <v>10600000</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>213</v>
       </c>
@@ -2582,7 +2637,7 @@
         <v>10650000</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>214</v>
       </c>
@@ -2591,7 +2646,7 @@
         <v>10700000</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>215</v>
       </c>
@@ -2600,7 +2655,7 @@
         <v>10750000</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>216</v>
       </c>
@@ -2609,7 +2664,7 @@
         <v>10800000</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>217</v>
       </c>
@@ -2618,7 +2673,7 @@
         <v>10850000</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>218</v>
       </c>
@@ -2627,7 +2682,7 @@
         <v>10900000</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>219</v>
       </c>
@@ -2636,7 +2691,7 @@
         <v>10950000</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>220</v>
       </c>
@@ -2645,7 +2700,7 @@
         <v>11000000</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>221</v>
       </c>
@@ -2654,7 +2709,7 @@
         <v>11050000</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>222</v>
       </c>
@@ -2663,7 +2718,7 @@
         <v>11100000</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>223</v>
       </c>
@@ -2672,7 +2727,7 @@
         <v>11150000</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>224</v>
       </c>
@@ -2681,7 +2736,7 @@
         <v>11200000</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>225</v>
       </c>
@@ -2690,7 +2745,7 @@
         <v>11250000</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>226</v>
       </c>
@@ -2699,7 +2754,7 @@
         <v>11300000</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>227</v>
       </c>
@@ -2708,7 +2763,7 @@
         <v>11350000</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>228</v>
       </c>
@@ -2717,7 +2772,7 @@
         <v>11400000</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>229</v>
       </c>
@@ -2726,7 +2781,7 @@
         <v>11450000</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>230</v>
       </c>
@@ -2735,7 +2790,7 @@
         <v>11500000</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>231</v>
       </c>
@@ -2744,7 +2799,7 @@
         <v>11550000</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>232</v>
       </c>
@@ -2753,7 +2808,7 @@
         <v>11600000</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>233</v>
       </c>
@@ -2762,7 +2817,7 @@
         <v>11650000</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>234</v>
       </c>
@@ -2771,7 +2826,7 @@
         <v>11700000</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>235</v>
       </c>
@@ -2780,7 +2835,7 @@
         <v>11750000</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>236</v>
       </c>
@@ -2789,7 +2844,7 @@
         <v>11800000</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>237</v>
       </c>
@@ -2798,7 +2853,7 @@
         <v>11850000</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>238</v>
       </c>
@@ -2807,7 +2862,7 @@
         <v>11900000</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>239</v>
       </c>
@@ -2816,7 +2871,7 @@
         <v>11950000</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>240</v>
       </c>
@@ -2825,7 +2880,7 @@
         <v>12000000</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>241</v>
       </c>
@@ -2834,7 +2889,7 @@
         <v>12050000</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>242</v>
       </c>
@@ -2843,7 +2898,7 @@
         <v>12100000</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>243</v>
       </c>
@@ -2852,7 +2907,7 @@
         <v>12150000</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>244</v>
       </c>
@@ -2861,7 +2916,7 @@
         <v>12200000</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>245</v>
       </c>
@@ -2870,7 +2925,7 @@
         <v>12250000</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>246</v>
       </c>
@@ -2879,7 +2934,7 @@
         <v>12300000</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>247</v>
       </c>
@@ -2888,7 +2943,7 @@
         <v>12350000</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>248</v>
       </c>
@@ -2897,7 +2952,7 @@
         <v>12400000</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>249</v>
       </c>
@@ -2906,7 +2961,7 @@
         <v>12450000</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>250</v>
       </c>
@@ -2915,7 +2970,7 @@
         <v>12500000</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>251</v>
       </c>
@@ -2924,7 +2979,7 @@
         <v>12550000</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>252</v>
       </c>
@@ -2933,7 +2988,7 @@
         <v>12600000</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>253</v>
       </c>
@@ -2942,7 +2997,7 @@
         <v>12650000</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>254</v>
       </c>
@@ -2951,7 +3006,7 @@
         <v>12700000</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>255</v>
       </c>
@@ -2960,7 +3015,7 @@
         <v>12750000</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>256</v>
       </c>
@@ -2969,7 +3024,7 @@
         <v>12800000</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>257</v>
       </c>
@@ -2978,7 +3033,7 @@
         <v>12850000</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>258</v>
       </c>
@@ -2987,7 +3042,7 @@
         <v>12900000</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>259</v>
       </c>
@@ -2996,7 +3051,7 @@
         <v>12950000</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>260</v>
       </c>
@@ -3005,7 +3060,7 @@
         <v>13000000</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>261</v>
       </c>
@@ -3014,7 +3069,7 @@
         <v>13050000</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>262</v>
       </c>
@@ -3023,7 +3078,7 @@
         <v>13100000</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>263</v>
       </c>
@@ -3032,7 +3087,7 @@
         <v>13150000</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>264</v>
       </c>
@@ -3041,7 +3096,7 @@
         <v>13200000</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>265</v>
       </c>
@@ -3050,7 +3105,7 @@
         <v>13250000</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>266</v>
       </c>
@@ -3059,7 +3114,7 @@
         <v>13300000</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>267</v>
       </c>
@@ -3068,7 +3123,7 @@
         <v>13350000</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>268</v>
       </c>
@@ -3077,7 +3132,7 @@
         <v>13400000</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>269</v>
       </c>
@@ -3086,7 +3141,7 @@
         <v>13450000</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>270</v>
       </c>
@@ -3095,7 +3150,7 @@
         <v>13500000</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>271</v>
       </c>
@@ -3104,7 +3159,7 @@
         <v>13550000</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>272</v>
       </c>
@@ -3113,7 +3168,7 @@
         <v>13600000</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>273</v>
       </c>
@@ -3122,7 +3177,7 @@
         <v>13650000</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>274</v>
       </c>
@@ -3131,7 +3186,7 @@
         <v>13700000</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>275</v>
       </c>
@@ -3140,7 +3195,7 @@
         <v>13750000</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>276</v>
       </c>
@@ -3149,7 +3204,7 @@
         <v>13800000</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>277</v>
       </c>
@@ -3158,7 +3213,7 @@
         <v>13850000</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>278</v>
       </c>
@@ -3167,7 +3222,7 @@
         <v>13900000</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>279</v>
       </c>
@@ -3176,7 +3231,7 @@
         <v>13950000</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>280</v>
       </c>
@@ -3185,7 +3240,7 @@
         <v>14000000</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>281</v>
       </c>
@@ -3194,7 +3249,7 @@
         <v>14050000</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>282</v>
       </c>
@@ -3203,7 +3258,7 @@
         <v>14100000</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>283</v>
       </c>
@@ -3212,7 +3267,7 @@
         <v>14150000</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>284</v>
       </c>
@@ -3221,7 +3276,7 @@
         <v>14200000</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>285</v>
       </c>
@@ -3230,7 +3285,7 @@
         <v>14250000</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>286</v>
       </c>
@@ -3239,7 +3294,7 @@
         <v>14300000</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>287</v>
       </c>
@@ -3248,7 +3303,7 @@
         <v>14350000</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>288</v>
       </c>
@@ -3257,7 +3312,7 @@
         <v>14400000</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>289</v>
       </c>
@@ -3266,7 +3321,7 @@
         <v>14450000</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>290</v>
       </c>
@@ -3275,7 +3330,7 @@
         <v>14500000</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>291</v>
       </c>
@@ -3284,7 +3339,7 @@
         <v>14550000</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>292</v>
       </c>
@@ -3293,7 +3348,7 @@
         <v>14600000</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>293</v>
       </c>
@@ -3302,7 +3357,7 @@
         <v>14650000</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>294</v>
       </c>
@@ -3311,7 +3366,7 @@
         <v>14700000</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>295</v>
       </c>
@@ -3320,7 +3375,7 @@
         <v>14750000</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>296</v>
       </c>
@@ -3329,7 +3384,7 @@
         <v>14800000</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>297</v>
       </c>
@@ -3338,7 +3393,7 @@
         <v>14850000</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>298</v>
       </c>
@@ -3347,7 +3402,7 @@
         <v>14900000</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>299</v>
       </c>
@@ -3356,7 +3411,7 @@
         <v>14950000</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>300</v>
       </c>
@@ -3365,7 +3420,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>301</v>
       </c>
@@ -3374,7 +3429,7 @@
         <v>15050000</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>302</v>
       </c>
@@ -3383,7 +3438,7 @@
         <v>15100000</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>303</v>
       </c>
@@ -3392,7 +3447,7 @@
         <v>15150000</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>304</v>
       </c>
@@ -3401,7 +3456,7 @@
         <v>15200000</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>305</v>
       </c>
@@ -3410,7 +3465,7 @@
         <v>15250000</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>306</v>
       </c>
@@ -3419,7 +3474,7 @@
         <v>15300000</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>307</v>
       </c>
@@ -3428,7 +3483,7 @@
         <v>15350000</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>308</v>
       </c>
@@ -3437,7 +3492,7 @@
         <v>15400000</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>309</v>
       </c>
@@ -3446,7 +3501,7 @@
         <v>15450000</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>310</v>
       </c>
@@ -3455,7 +3510,7 @@
         <v>15500000</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>311</v>
       </c>
@@ -3464,7 +3519,7 @@
         <v>15550000</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>312</v>
       </c>
@@ -3473,7 +3528,7 @@
         <v>15600000</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>313</v>
       </c>
@@ -3482,7 +3537,7 @@
         <v>15650000</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>314</v>
       </c>
@@ -3491,7 +3546,7 @@
         <v>15700000</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>315</v>
       </c>
@@ -3500,7 +3555,7 @@
         <v>15750000</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>316</v>
       </c>
@@ -3509,7 +3564,7 @@
         <v>15800000</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>317</v>
       </c>
@@ -3518,7 +3573,7 @@
         <v>15850000</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>318</v>
       </c>
@@ -3527,7 +3582,7 @@
         <v>15900000</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>319</v>
       </c>
@@ -3536,7 +3591,7 @@
         <v>15950000</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>320</v>
       </c>
@@ -3545,7 +3600,7 @@
         <v>16000000</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>321</v>
       </c>
@@ -3554,7 +3609,7 @@
         <v>16050000</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>322</v>
       </c>
@@ -3563,7 +3618,7 @@
         <v>16100000</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>323</v>
       </c>
@@ -3572,7 +3627,7 @@
         <v>16150000</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>324</v>
       </c>
@@ -3581,7 +3636,7 @@
         <v>16200000</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>325</v>
       </c>
@@ -3590,7 +3645,7 @@
         <v>16250000</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>326</v>
       </c>
@@ -3599,7 +3654,7 @@
         <v>16300000</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>327</v>
       </c>
@@ -3608,7 +3663,7 @@
         <v>16350000</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>328</v>
       </c>
@@ -3617,7 +3672,7 @@
         <v>16400000</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>329</v>
       </c>
@@ -3626,7 +3681,7 @@
         <v>16450000</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>330</v>
       </c>
@@ -3635,7 +3690,7 @@
         <v>16500000</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>331</v>
       </c>
@@ -3644,7 +3699,7 @@
         <v>16550000</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>332</v>
       </c>
@@ -3653,7 +3708,7 @@
         <v>16600000</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>333</v>
       </c>
@@ -3662,7 +3717,7 @@
         <v>16650000</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>334</v>
       </c>
@@ -3671,7 +3726,7 @@
         <v>16700000</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>335</v>
       </c>
@@ -3680,7 +3735,7 @@
         <v>16750000</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>336</v>
       </c>
@@ -3689,7 +3744,7 @@
         <v>16800000</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>337</v>
       </c>
@@ -3698,7 +3753,7 @@
         <v>16850000</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>338</v>
       </c>
@@ -3707,7 +3762,7 @@
         <v>16900000</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>339</v>
       </c>
@@ -3716,7 +3771,7 @@
         <v>16950000</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>340</v>
       </c>
@@ -3725,7 +3780,7 @@
         <v>17000000</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>341</v>
       </c>
@@ -3734,7 +3789,7 @@
         <v>17050000</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>342</v>
       </c>
@@ -3743,7 +3798,7 @@
         <v>17100000</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>343</v>
       </c>
@@ -3752,7 +3807,7 @@
         <v>17150000</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>344</v>
       </c>
@@ -3761,7 +3816,7 @@
         <v>17200000</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>345</v>
       </c>
@@ -3770,7 +3825,7 @@
         <v>17250000</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>346</v>
       </c>
@@ -3779,7 +3834,7 @@
         <v>17300000</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>347</v>
       </c>
@@ -3788,7 +3843,7 @@
         <v>17350000</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>348</v>
       </c>
@@ -3797,7 +3852,7 @@
         <v>17400000</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>349</v>
       </c>
@@ -3806,7 +3861,7 @@
         <v>17450000</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>350</v>
       </c>
@@ -3815,7 +3870,7 @@
         <v>17500000</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>351</v>
       </c>
@@ -3824,7 +3879,7 @@
         <v>17550000</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>352</v>
       </c>
@@ -3833,7 +3888,7 @@
         <v>17600000</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>353</v>
       </c>
@@ -3842,7 +3897,7 @@
         <v>17650000</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>354</v>
       </c>
@@ -3851,7 +3906,7 @@
         <v>17700000</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>355</v>
       </c>
@@ -3860,7 +3915,7 @@
         <v>17750000</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>356</v>
       </c>
@@ -3869,7 +3924,7 @@
         <v>17800000</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>357</v>
       </c>
@@ -3878,7 +3933,7 @@
         <v>17850000</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>358</v>
       </c>
@@ -3887,7 +3942,7 @@
         <v>17900000</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>359</v>
       </c>
@@ -3896,7 +3951,7 @@
         <v>17950000</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>360</v>
       </c>
@@ -3905,7 +3960,7 @@
         <v>18000000</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>361</v>
       </c>
@@ -3914,7 +3969,7 @@
         <v>18050000</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>362</v>
       </c>
@@ -3923,7 +3978,7 @@
         <v>18100000</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>363</v>
       </c>
@@ -3932,7 +3987,7 @@
         <v>18150000</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>364</v>
       </c>
@@ -3941,7 +3996,7 @@
         <v>18200000</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>365</v>
       </c>
@@ -3950,7 +4005,7 @@
         <v>18250000</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>366</v>
       </c>
@@ -3959,7 +4014,7 @@
         <v>18300000</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>367</v>
       </c>
@@ -3968,7 +4023,7 @@
         <v>18350000</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>368</v>
       </c>
@@ -3977,7 +4032,7 @@
         <v>18400000</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>369</v>
       </c>
@@ -3986,7 +4041,7 @@
         <v>18450000</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>370</v>
       </c>
@@ -3995,7 +4050,7 @@
         <v>18500000</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>371</v>
       </c>
@@ -4004,7 +4059,7 @@
         <v>18550000</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>372</v>
       </c>
@@ -4013,7 +4068,7 @@
         <v>18600000</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>373</v>
       </c>
@@ -4022,7 +4077,7 @@
         <v>18650000</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>374</v>
       </c>
@@ -4031,7 +4086,7 @@
         <v>18700000</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>375</v>
       </c>
@@ -4040,7 +4095,7 @@
         <v>18750000</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>376</v>
       </c>
@@ -4049,7 +4104,7 @@
         <v>18800000</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>377</v>
       </c>
@@ -4058,7 +4113,7 @@
         <v>18850000</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>378</v>
       </c>
@@ -4067,7 +4122,7 @@
         <v>18900000</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>379</v>
       </c>
@@ -4076,7 +4131,7 @@
         <v>18950000</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>380</v>
       </c>
@@ -4085,7 +4140,7 @@
         <v>19000000</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>381</v>
       </c>
@@ -4094,7 +4149,7 @@
         <v>19050000</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>382</v>
       </c>
@@ -4103,7 +4158,7 @@
         <v>19100000</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>383</v>
       </c>
@@ -4112,7 +4167,7 @@
         <v>19150000</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>384</v>
       </c>
@@ -4121,7 +4176,7 @@
         <v>19200000</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>385</v>
       </c>
@@ -4130,7 +4185,7 @@
         <v>19250000</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>386</v>
       </c>
@@ -4139,7 +4194,7 @@
         <v>19300000</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>387</v>
       </c>
@@ -4148,7 +4203,7 @@
         <v>19350000</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>388</v>
       </c>
@@ -4157,7 +4212,7 @@
         <v>19400000</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>389</v>
       </c>
@@ -4166,7 +4221,7 @@
         <v>19450000</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>390</v>
       </c>
@@ -4175,7 +4230,7 @@
         <v>19500000</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>391</v>
       </c>
@@ -4184,7 +4239,7 @@
         <v>19550000</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>392</v>
       </c>
@@ -4193,7 +4248,7 @@
         <v>19600000</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>393</v>
       </c>
@@ -4202,7 +4257,7 @@
         <v>19650000</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>394</v>
       </c>
@@ -4211,7 +4266,7 @@
         <v>19700000</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>395</v>
       </c>
@@ -4220,7 +4275,7 @@
         <v>19750000</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>396</v>
       </c>
@@ -4229,7 +4284,7 @@
         <v>19800000</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>397</v>
       </c>
@@ -4238,7 +4293,7 @@
         <v>19850000</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>398</v>
       </c>
@@ -4247,7 +4302,7 @@
         <v>19900000</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>399</v>
       </c>
@@ -4256,7 +4311,7 @@
         <v>19950000</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>400</v>
       </c>
@@ -4265,7 +4320,7 @@
         <v>20000000</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>401</v>
       </c>
@@ -4274,7 +4329,7 @@
         <v>20050000</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>402</v>
       </c>
@@ -4283,7 +4338,7 @@
         <v>20100000</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>403</v>
       </c>
@@ -4292,7 +4347,7 @@
         <v>20150000</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>404</v>
       </c>
@@ -4301,7 +4356,7 @@
         <v>20200000</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>405</v>
       </c>
@@ -4310,7 +4365,7 @@
         <v>20250000</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>406</v>
       </c>
@@ -4319,7 +4374,7 @@
         <v>20300000</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>407</v>
       </c>
@@ -4328,7 +4383,7 @@
         <v>20350000</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>408</v>
       </c>
@@ -4337,7 +4392,7 @@
         <v>20400000</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>409</v>
       </c>
@@ -4346,7 +4401,7 @@
         <v>20450000</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>410</v>
       </c>
@@ -4355,7 +4410,7 @@
         <v>20500000</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>411</v>
       </c>
@@ -4364,7 +4419,7 @@
         <v>20550000</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>412</v>
       </c>
@@ -4373,7 +4428,7 @@
         <v>20600000</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>413</v>
       </c>
@@ -4382,7 +4437,7 @@
         <v>20650000</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>414</v>
       </c>
@@ -4391,7 +4446,7 @@
         <v>20700000</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>415</v>
       </c>
@@ -4400,7 +4455,7 @@
         <v>20750000</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>416</v>
       </c>
@@ -4409,7 +4464,7 @@
         <v>20800000</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>417</v>
       </c>
@@ -4418,7 +4473,7 @@
         <v>20850000</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>418</v>
       </c>
@@ -4427,7 +4482,7 @@
         <v>20900000</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>419</v>
       </c>
@@ -4436,7 +4491,7 @@
         <v>20950000</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>420</v>
       </c>
@@ -4445,7 +4500,7 @@
         <v>21000000</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>421</v>
       </c>
@@ -4454,7 +4509,7 @@
         <v>21050000</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>422</v>
       </c>
@@ -4463,7 +4518,7 @@
         <v>21100000</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>423</v>
       </c>
@@ -4472,7 +4527,7 @@
         <v>21150000</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>424</v>
       </c>
@@ -4481,7 +4536,7 @@
         <v>21200000</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>425</v>
       </c>
@@ -4490,7 +4545,7 @@
         <v>21250000</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>426</v>
       </c>
@@ -4499,7 +4554,7 @@
         <v>21300000</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>427</v>
       </c>
@@ -4508,7 +4563,7 @@
         <v>21350000</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>428</v>
       </c>
@@ -4517,7 +4572,7 @@
         <v>21400000</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>429</v>
       </c>
@@ -4526,7 +4581,7 @@
         <v>21450000</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>430</v>
       </c>
@@ -4535,7 +4590,7 @@
         <v>21500000</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>431</v>
       </c>
@@ -4544,7 +4599,7 @@
         <v>21550000</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>432</v>
       </c>
@@ -4553,7 +4608,7 @@
         <v>21600000</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>433</v>
       </c>
@@ -4562,7 +4617,7 @@
         <v>21650000</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>434</v>
       </c>
@@ -4571,7 +4626,7 @@
         <v>21700000</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>435</v>
       </c>
@@ -4580,7 +4635,7 @@
         <v>21750000</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>436</v>
       </c>
@@ -4589,7 +4644,7 @@
         <v>21800000</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>437</v>
       </c>
@@ -4598,7 +4653,7 @@
         <v>21850000</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>438</v>
       </c>
@@ -4607,7 +4662,7 @@
         <v>21900000</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>439</v>
       </c>
@@ -4616,7 +4671,7 @@
         <v>21950000</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>440</v>
       </c>
@@ -4625,7 +4680,7 @@
         <v>22000000</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>441</v>
       </c>
@@ -4634,7 +4689,7 @@
         <v>22050000</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>442</v>
       </c>
@@ -4643,7 +4698,7 @@
         <v>22100000</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>443</v>
       </c>
@@ -4652,7 +4707,7 @@
         <v>22150000</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>444</v>
       </c>
@@ -4661,7 +4716,7 @@
         <v>22200000</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>445</v>
       </c>
@@ -4670,7 +4725,7 @@
         <v>22250000</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>446</v>
       </c>
@@ -4679,7 +4734,7 @@
         <v>22300000</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>447</v>
       </c>
@@ -4688,7 +4743,7 @@
         <v>22350000</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>448</v>
       </c>
@@ -4697,7 +4752,7 @@
         <v>22400000</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>449</v>
       </c>
@@ -4706,7 +4761,7 @@
         <v>22450000</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>450</v>
       </c>
@@ -4715,7 +4770,7 @@
         <v>22500000</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>451</v>
       </c>
@@ -4724,7 +4779,7 @@
         <v>22550000</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>452</v>
       </c>
@@ -4733,7 +4788,7 @@
         <v>22600000</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>453</v>
       </c>
@@ -4742,7 +4797,7 @@
         <v>22650000</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>454</v>
       </c>
@@ -4751,7 +4806,7 @@
         <v>22700000</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>455</v>
       </c>
@@ -4760,7 +4815,7 @@
         <v>22750000</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>456</v>
       </c>
@@ -4769,7 +4824,7 @@
         <v>22800000</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>457</v>
       </c>
@@ -4778,7 +4833,7 @@
         <v>22850000</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>458</v>
       </c>
@@ -4787,7 +4842,7 @@
         <v>22900000</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>459</v>
       </c>
@@ -4796,7 +4851,7 @@
         <v>22950000</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>460</v>
       </c>
@@ -4805,7 +4860,7 @@
         <v>23000000</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>461</v>
       </c>
@@ -4814,7 +4869,7 @@
         <v>23050000</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>462</v>
       </c>
@@ -4823,7 +4878,7 @@
         <v>23100000</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>463</v>
       </c>
@@ -4832,7 +4887,7 @@
         <v>23150000</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>464</v>
       </c>
@@ -4841,7 +4896,7 @@
         <v>23200000</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>465</v>
       </c>
@@ -4850,7 +4905,7 @@
         <v>23250000</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>466</v>
       </c>
@@ -4859,7 +4914,7 @@
         <v>23300000</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>467</v>
       </c>
@@ -4868,7 +4923,7 @@
         <v>23350000</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>468</v>
       </c>
@@ -4877,7 +4932,7 @@
         <v>23400000</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>469</v>
       </c>
@@ -4886,7 +4941,7 @@
         <v>23450000</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>470</v>
       </c>
@@ -4895,7 +4950,7 @@
         <v>23500000</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>471</v>
       </c>
@@ -4904,7 +4959,7 @@
         <v>23550000</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>472</v>
       </c>
@@ -4913,7 +4968,7 @@
         <v>23600000</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>473</v>
       </c>
@@ -4922,7 +4977,7 @@
         <v>23650000</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>474</v>
       </c>
@@ -4931,7 +4986,7 @@
         <v>23700000</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>475</v>
       </c>
@@ -4940,7 +4995,7 @@
         <v>23750000</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>476</v>
       </c>
@@ -4949,7 +5004,7 @@
         <v>23800000</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>477</v>
       </c>
@@ -4958,7 +5013,7 @@
         <v>23850000</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>478</v>
       </c>
@@ -4967,7 +5022,7 @@
         <v>23900000</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>479</v>
       </c>
@@ -4976,7 +5031,7 @@
         <v>23950000</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>480</v>
       </c>
@@ -4985,7 +5040,7 @@
         <v>24000000</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>481</v>
       </c>
@@ -4994,7 +5049,7 @@
         <v>24050000</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>482</v>
       </c>
@@ -5003,7 +5058,7 @@
         <v>24100000</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>483</v>
       </c>
@@ -5012,7 +5067,7 @@
         <v>24150000</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>484</v>
       </c>
@@ -5021,7 +5076,7 @@
         <v>24200000</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>485</v>
       </c>
@@ -5030,7 +5085,7 @@
         <v>24250000</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>486</v>
       </c>
@@ -5039,7 +5094,7 @@
         <v>24300000</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>487</v>
       </c>
@@ -5048,7 +5103,7 @@
         <v>24350000</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>488</v>
       </c>
@@ -5057,7 +5112,7 @@
         <v>24400000</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>489</v>
       </c>
@@ -5066,7 +5121,7 @@
         <v>24450000</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>490</v>
       </c>
@@ -5075,7 +5130,7 @@
         <v>24500000</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>491</v>
       </c>
@@ -5084,7 +5139,7 @@
         <v>24550000</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>492</v>
       </c>
@@ -5093,7 +5148,7 @@
         <v>24600000</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>493</v>
       </c>
@@ -5102,7 +5157,7 @@
         <v>24650000</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>494</v>
       </c>
@@ -5111,7 +5166,7 @@
         <v>24700000</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>495</v>
       </c>
@@ -5120,7 +5175,7 @@
         <v>24750000</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>496</v>
       </c>
@@ -5129,7 +5184,7 @@
         <v>24800000</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>497</v>
       </c>
@@ -5138,7 +5193,7 @@
         <v>24850000</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>498</v>
       </c>
@@ -5147,7 +5202,7 @@
         <v>24900000</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>499</v>
       </c>
@@ -5156,7 +5211,7 @@
         <v>24950000</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>500</v>
       </c>
@@ -5165,7 +5220,7 @@
         <v>25000000</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>501</v>
       </c>
@@ -5174,7 +5229,7 @@
         <v>25050000</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>502</v>
       </c>
@@ -5183,7 +5238,7 @@
         <v>25100000</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>503</v>
       </c>
@@ -5192,7 +5247,7 @@
         <v>25150000</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>504</v>
       </c>
@@ -5201,7 +5256,7 @@
         <v>25200000</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>505</v>
       </c>
@@ -5210,7 +5265,7 @@
         <v>25250000</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>506</v>
       </c>
@@ -5219,7 +5274,7 @@
         <v>25300000</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>507</v>
       </c>
@@ -5228,7 +5283,7 @@
         <v>25350000</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>508</v>
       </c>
@@ -5237,7 +5292,7 @@
         <v>25400000</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>509</v>
       </c>
@@ -5246,7 +5301,7 @@
         <v>25450000</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>510</v>
       </c>
@@ -5255,7 +5310,7 @@
         <v>25500000</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>511</v>
       </c>
@@ -5264,7 +5319,7 @@
         <v>25550000</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>512</v>
       </c>
@@ -5273,7 +5328,7 @@
         <v>25600000</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>513</v>
       </c>
@@ -5282,7 +5337,7 @@
         <v>25650000</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>514</v>
       </c>
@@ -5291,7 +5346,7 @@
         <v>25700000</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>515</v>
       </c>
@@ -5300,7 +5355,7 @@
         <v>25750000</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>516</v>
       </c>
@@ -5309,7 +5364,7 @@
         <v>25800000</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>517</v>
       </c>
@@ -5318,7 +5373,7 @@
         <v>25850000</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>518</v>
       </c>
@@ -5327,7 +5382,7 @@
         <v>25900000</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>519</v>
       </c>
@@ -5336,7 +5391,7 @@
         <v>25950000</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>520</v>
       </c>
@@ -5345,7 +5400,7 @@
         <v>26000000</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>521</v>
       </c>
@@ -5354,7 +5409,7 @@
         <v>26050000</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>522</v>
       </c>
@@ -5363,7 +5418,7 @@
         <v>26100000</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>523</v>
       </c>
@@ -5372,7 +5427,7 @@
         <v>26150000</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>524</v>
       </c>
@@ -5381,7 +5436,7 @@
         <v>26200000</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>525</v>
       </c>
@@ -5390,7 +5445,7 @@
         <v>26250000</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>526</v>
       </c>
@@ -5399,7 +5454,7 @@
         <v>26300000</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>527</v>
       </c>
@@ -5408,7 +5463,7 @@
         <v>26350000</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>528</v>
       </c>
@@ -5417,7 +5472,7 @@
         <v>26400000</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>529</v>
       </c>
@@ -5426,7 +5481,7 @@
         <v>26450000</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>530</v>
       </c>
@@ -5435,7 +5490,7 @@
         <v>26500000</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>531</v>
       </c>
@@ -5444,7 +5499,7 @@
         <v>26550000</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>532</v>
       </c>
@@ -5453,7 +5508,7 @@
         <v>26600000</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>533</v>
       </c>
@@ -5462,7 +5517,7 @@
         <v>26650000</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>534</v>
       </c>
@@ -5471,7 +5526,7 @@
         <v>26700000</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>535</v>
       </c>
@@ -5480,7 +5535,7 @@
         <v>26750000</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>536</v>
       </c>
@@ -5489,7 +5544,7 @@
         <v>26800000</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>537</v>
       </c>
@@ -5498,7 +5553,7 @@
         <v>26850000</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>538</v>
       </c>
@@ -5507,7 +5562,7 @@
         <v>26900000</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>539</v>
       </c>
@@ -5516,7 +5571,7 @@
         <v>26950000</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>540</v>
       </c>
@@ -5525,7 +5580,7 @@
         <v>27000000</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>541</v>
       </c>
@@ -5534,7 +5589,7 @@
         <v>27050000</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>542</v>
       </c>
@@ -5543,7 +5598,7 @@
         <v>27100000</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>543</v>
       </c>
@@ -5552,7 +5607,7 @@
         <v>27150000</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>544</v>
       </c>
@@ -5561,7 +5616,7 @@
         <v>27200000</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>545</v>
       </c>
@@ -5570,7 +5625,7 @@
         <v>27250000</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>546</v>
       </c>
@@ -5579,7 +5634,7 @@
         <v>27300000</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>547</v>
       </c>
@@ -5588,7 +5643,7 @@
         <v>27350000</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>548</v>
       </c>
@@ -5597,7 +5652,7 @@
         <v>27400000</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>549</v>
       </c>
@@ -5606,7 +5661,7 @@
         <v>27450000</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>550</v>
       </c>
@@ -5615,7 +5670,7 @@
         <v>27500000</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>551</v>
       </c>
@@ -5624,7 +5679,7 @@
         <v>27550000</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>552</v>
       </c>
@@ -5633,7 +5688,7 @@
         <v>27600000</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>553</v>
       </c>
@@ -5642,7 +5697,7 @@
         <v>27650000</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>554</v>
       </c>
@@ -5651,7 +5706,7 @@
         <v>27700000</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>555</v>
       </c>
@@ -5660,7 +5715,7 @@
         <v>27750000</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>556</v>
       </c>
@@ -5669,7 +5724,7 @@
         <v>27800000</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>557</v>
       </c>
@@ -5678,7 +5733,7 @@
         <v>27850000</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>558</v>
       </c>
@@ -5687,7 +5742,7 @@
         <v>27900000</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>559</v>
       </c>
@@ -5696,7 +5751,7 @@
         <v>27950000</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>560</v>
       </c>
@@ -5705,7 +5760,7 @@
         <v>28000000</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>561</v>
       </c>
@@ -5714,7 +5769,7 @@
         <v>28050000</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>562</v>
       </c>
@@ -5723,7 +5778,7 @@
         <v>28100000</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>563</v>
       </c>
@@ -5732,7 +5787,7 @@
         <v>28150000</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>564</v>
       </c>
@@ -5741,7 +5796,7 @@
         <v>28200000</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>565</v>
       </c>
@@ -5750,7 +5805,7 @@
         <v>28250000</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>566</v>
       </c>
@@ -5759,7 +5814,7 @@
         <v>28300000</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>567</v>
       </c>
@@ -5768,7 +5823,7 @@
         <v>28350000</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>568</v>
       </c>
@@ -5777,7 +5832,7 @@
         <v>28400000</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>569</v>
       </c>
@@ -5786,7 +5841,7 @@
         <v>28450000</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>570</v>
       </c>
@@ -5795,7 +5850,7 @@
         <v>28500000</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>571</v>
       </c>
@@ -5804,7 +5859,7 @@
         <v>28550000</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>572</v>
       </c>
@@ -5813,7 +5868,7 @@
         <v>28600000</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>573</v>
       </c>
@@ -5822,7 +5877,7 @@
         <v>28650000</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>574</v>
       </c>
@@ -5831,7 +5886,7 @@
         <v>28700000</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>575</v>
       </c>
@@ -5840,7 +5895,7 @@
         <v>28750000</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>576</v>
       </c>
@@ -5849,7 +5904,7 @@
         <v>28800000</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>577</v>
       </c>
@@ -5858,7 +5913,7 @@
         <v>28850000</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>578</v>
       </c>
@@ -5867,7 +5922,7 @@
         <v>28900000</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>579</v>
       </c>
@@ -5876,7 +5931,7 @@
         <v>28950000</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>580</v>
       </c>
@@ -5885,7 +5940,7 @@
         <v>29000000</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>581</v>
       </c>
@@ -5894,7 +5949,7 @@
         <v>29050000</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>582</v>
       </c>
@@ -5903,7 +5958,7 @@
         <v>29100000</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>583</v>
       </c>
@@ -5912,7 +5967,7 @@
         <v>29150000</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>584</v>
       </c>
@@ -5921,7 +5976,7 @@
         <v>29200000</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>585</v>
       </c>
@@ -5930,7 +5985,7 @@
         <v>29250000</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>586</v>
       </c>
@@ -5939,7 +5994,7 @@
         <v>29300000</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>587</v>
       </c>
@@ -5948,7 +6003,7 @@
         <v>29350000</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>588</v>
       </c>
@@ -5957,7 +6012,7 @@
         <v>29400000</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>589</v>
       </c>
@@ -5966,7 +6021,7 @@
         <v>29450000</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>590</v>
       </c>
@@ -5975,7 +6030,7 @@
         <v>29500000</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>591</v>
       </c>
@@ -5984,7 +6039,7 @@
         <v>29550000</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>592</v>
       </c>
@@ -5993,7 +6048,7 @@
         <v>29600000</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>593</v>
       </c>
@@ -6002,7 +6057,7 @@
         <v>29650000</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>594</v>
       </c>
@@ -6011,7 +6066,7 @@
         <v>29700000</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>595</v>
       </c>
@@ -6020,7 +6075,7 @@
         <v>29750000</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>596</v>
       </c>
@@ -6029,7 +6084,7 @@
         <v>29800000</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>597</v>
       </c>
@@ -6038,7 +6093,7 @@
         <v>29850000</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>598</v>
       </c>
@@ -6047,7 +6102,7 @@
         <v>29900000</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>599</v>
       </c>
@@ -6056,7 +6111,7 @@
         <v>29950000</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>600</v>
       </c>
@@ -6065,7 +6120,7 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>601</v>
       </c>
@@ -6074,7 +6129,7 @@
         <v>30050000</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>602</v>
       </c>
@@ -6083,7 +6138,7 @@
         <v>30100000</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>603</v>
       </c>
@@ -6092,7 +6147,7 @@
         <v>30150000</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>604</v>
       </c>
@@ -6101,7 +6156,7 @@
         <v>30200000</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>605</v>
       </c>
@@ -6110,7 +6165,7 @@
         <v>30250000</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>606</v>
       </c>
@@ -6119,7 +6174,7 @@
         <v>30300000</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>607</v>
       </c>
@@ -6128,7 +6183,7 @@
         <v>30350000</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>608</v>
       </c>
@@ -6137,7 +6192,7 @@
         <v>30400000</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>609</v>
       </c>
@@ -6146,7 +6201,7 @@
         <v>30450000</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>610</v>
       </c>
@@ -6155,7 +6210,7 @@
         <v>30500000</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A611">
         <v>611</v>
       </c>
@@ -6164,7 +6219,7 @@
         <v>30550000</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>612</v>
       </c>
@@ -6173,7 +6228,7 @@
         <v>30600000</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>613</v>
       </c>
@@ -6182,7 +6237,7 @@
         <v>30650000</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>614</v>
       </c>
@@ -6191,7 +6246,7 @@
         <v>30700000</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>615</v>
       </c>
@@ -6200,7 +6255,7 @@
         <v>30750000</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>616</v>
       </c>
@@ -6209,7 +6264,7 @@
         <v>30800000</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>617</v>
       </c>
@@ -6218,7 +6273,7 @@
         <v>30850000</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>618</v>
       </c>
@@ -6227,7 +6282,7 @@
         <v>30900000</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>619</v>
       </c>
@@ -6236,7 +6291,7 @@
         <v>30950000</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A620">
         <v>620</v>
       </c>
@@ -6245,7 +6300,7 @@
         <v>31000000</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>621</v>
       </c>
@@ -6254,7 +6309,7 @@
         <v>31050000</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A622">
         <v>622</v>
       </c>
@@ -6263,7 +6318,7 @@
         <v>31100000</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>623</v>
       </c>
@@ -6272,7 +6327,7 @@
         <v>31150000</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>624</v>
       </c>
@@ -6281,7 +6336,7 @@
         <v>31200000</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>625</v>
       </c>
@@ -6290,7 +6345,7 @@
         <v>31250000</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>626</v>
       </c>
@@ -6299,7 +6354,7 @@
         <v>31300000</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>627</v>
       </c>
@@ -6308,7 +6363,7 @@
         <v>31350000</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>628</v>
       </c>
@@ -6317,7 +6372,7 @@
         <v>31400000</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>629</v>
       </c>
@@ -6326,7 +6381,7 @@
         <v>31450000</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>630</v>
       </c>
@@ -6335,7 +6390,7 @@
         <v>31500000</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>631</v>
       </c>
@@ -6344,7 +6399,7 @@
         <v>31550000</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>632</v>
       </c>
@@ -6353,7 +6408,7 @@
         <v>31600000</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A633">
         <v>633</v>
       </c>
@@ -6362,7 +6417,7 @@
         <v>31650000</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>634</v>
       </c>
@@ -6371,7 +6426,7 @@
         <v>31700000</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>635</v>
       </c>
@@ -6380,7 +6435,7 @@
         <v>31750000</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>636</v>
       </c>
@@ -6389,7 +6444,7 @@
         <v>31800000</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A637">
         <v>637</v>
       </c>
@@ -6398,7 +6453,7 @@
         <v>31850000</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>638</v>
       </c>
@@ -6407,7 +6462,7 @@
         <v>31900000</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>639</v>
       </c>
@@ -6416,7 +6471,7 @@
         <v>31950000</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>640</v>
       </c>
@@ -6425,7 +6480,7 @@
         <v>32000000</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A641">
         <v>641</v>
       </c>
@@ -6434,7 +6489,7 @@
         <v>32050000</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A642">
         <v>642</v>
       </c>
@@ -6443,7 +6498,7 @@
         <v>32100000</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A643">
         <v>643</v>
       </c>
@@ -6452,7 +6507,7 @@
         <v>32150000</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A644">
         <v>644</v>
       </c>
@@ -6461,7 +6516,7 @@
         <v>32200000</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A645">
         <v>645</v>
       </c>
@@ -6470,7 +6525,7 @@
         <v>32250000</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A646">
         <v>646</v>
       </c>
@@ -6479,7 +6534,7 @@
         <v>32300000</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A647">
         <v>647</v>
       </c>
@@ -6488,7 +6543,7 @@
         <v>32350000</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A648">
         <v>648</v>
       </c>
@@ -6497,7 +6552,7 @@
         <v>32400000</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A649">
         <v>649</v>
       </c>
@@ -6506,7 +6561,7 @@
         <v>32450000</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A650">
         <v>650</v>
       </c>
@@ -6515,7 +6570,7 @@
         <v>32500000</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A651">
         <v>651</v>
       </c>
@@ -6524,7 +6579,7 @@
         <v>32550000</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A652">
         <v>652</v>
       </c>
@@ -6533,7 +6588,7 @@
         <v>32600000</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A653">
         <v>653</v>
       </c>
@@ -6542,7 +6597,7 @@
         <v>32650000</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A654">
         <v>654</v>
       </c>
@@ -6551,7 +6606,7 @@
         <v>32700000</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A655">
         <v>655</v>
       </c>
@@ -6560,7 +6615,7 @@
         <v>32750000</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A656">
         <v>656</v>
       </c>
@@ -6569,7 +6624,7 @@
         <v>32800000</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A657">
         <v>657</v>
       </c>
@@ -6578,7 +6633,7 @@
         <v>32850000</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A658">
         <v>658</v>
       </c>
@@ -6587,7 +6642,7 @@
         <v>32900000</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A659">
         <v>659</v>
       </c>
@@ -6596,7 +6651,7 @@
         <v>32950000</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A660">
         <v>660</v>
       </c>
@@ -6605,7 +6660,7 @@
         <v>33000000</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A661">
         <v>661</v>
       </c>
@@ -6614,7 +6669,7 @@
         <v>33050000</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A662">
         <v>662</v>
       </c>
@@ -6623,7 +6678,7 @@
         <v>33100000</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A663">
         <v>663</v>
       </c>
@@ -6632,7 +6687,7 @@
         <v>33150000</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A664">
         <v>664</v>
       </c>
@@ -6641,7 +6696,7 @@
         <v>33200000</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A665">
         <v>665</v>
       </c>
@@ -6650,7 +6705,7 @@
         <v>33250000</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A666">
         <v>666</v>
       </c>
@@ -6659,7 +6714,7 @@
         <v>33300000</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A667">
         <v>667</v>
       </c>
@@ -6668,7 +6723,7 @@
         <v>33350000</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A668">
         <v>668</v>
       </c>
@@ -6677,7 +6732,7 @@
         <v>33400000</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A669">
         <v>669</v>
       </c>
@@ -6686,7 +6741,7 @@
         <v>33450000</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A670">
         <v>670</v>
       </c>
@@ -6695,7 +6750,7 @@
         <v>33500000</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A671">
         <v>671</v>
       </c>
@@ -6704,7 +6759,7 @@
         <v>33550000</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A672">
         <v>672</v>
       </c>
@@ -6713,7 +6768,7 @@
         <v>33600000</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A673">
         <v>673</v>
       </c>
@@ -6722,7 +6777,7 @@
         <v>33650000</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A674">
         <v>674</v>
       </c>
@@ -6731,7 +6786,7 @@
         <v>33700000</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A675">
         <v>675</v>
       </c>
@@ -6740,7 +6795,7 @@
         <v>33750000</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A676">
         <v>676</v>
       </c>
@@ -6749,7 +6804,7 @@
         <v>33800000</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A677">
         <v>677</v>
       </c>
@@ -6758,7 +6813,7 @@
         <v>33850000</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A678">
         <v>678</v>
       </c>
@@ -6767,7 +6822,7 @@
         <v>33900000</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A679">
         <v>679</v>
       </c>
@@ -6776,7 +6831,7 @@
         <v>33950000</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A680">
         <v>680</v>
       </c>
@@ -6785,7 +6840,7 @@
         <v>34000000</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A681">
         <v>681</v>
       </c>
@@ -6794,7 +6849,7 @@
         <v>34050000</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A682">
         <v>682</v>
       </c>
@@ -6803,7 +6858,7 @@
         <v>34100000</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A683">
         <v>683</v>
       </c>
@@ -6812,7 +6867,7 @@
         <v>34150000</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A684">
         <v>684</v>
       </c>
@@ -6821,7 +6876,7 @@
         <v>34200000</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A685">
         <v>685</v>
       </c>
@@ -6830,7 +6885,7 @@
         <v>34250000</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A686">
         <v>686</v>
       </c>
@@ -6839,7 +6894,7 @@
         <v>34300000</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A687">
         <v>687</v>
       </c>
@@ -6848,7 +6903,7 @@
         <v>34350000</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A688">
         <v>688</v>
       </c>
@@ -6857,7 +6912,7 @@
         <v>34400000</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A689">
         <v>689</v>
       </c>
@@ -6866,7 +6921,7 @@
         <v>34450000</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A690">
         <v>690</v>
       </c>
@@ -6875,7 +6930,7 @@
         <v>34500000</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A691">
         <v>691</v>
       </c>
@@ -6884,7 +6939,7 @@
         <v>34550000</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A692">
         <v>692</v>
       </c>
@@ -6893,7 +6948,7 @@
         <v>34600000</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A693">
         <v>693</v>
       </c>
@@ -6902,7 +6957,7 @@
         <v>34650000</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A694">
         <v>694</v>
       </c>
@@ -6911,7 +6966,7 @@
         <v>34700000</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A695">
         <v>695</v>
       </c>
@@ -6920,7 +6975,7 @@
         <v>34750000</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A696">
         <v>696</v>
       </c>
@@ -6929,7 +6984,7 @@
         <v>34800000</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A697">
         <v>697</v>
       </c>
@@ -6938,7 +6993,7 @@
         <v>34850000</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A698">
         <v>698</v>
       </c>
@@ -6947,7 +7002,7 @@
         <v>34900000</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A699">
         <v>699</v>
       </c>
@@ -6956,7 +7011,7 @@
         <v>34950000</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A700">
         <v>700</v>
       </c>
@@ -6965,7 +7020,7 @@
         <v>35000000</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A701">
         <v>701</v>
       </c>
@@ -6974,7 +7029,7 @@
         <v>35050000</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A702">
         <v>702</v>
       </c>
@@ -6983,7 +7038,7 @@
         <v>35100000</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A703">
         <v>703</v>
       </c>
@@ -6992,7 +7047,7 @@
         <v>35150000</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A704">
         <v>704</v>
       </c>
@@ -7001,7 +7056,7 @@
         <v>35200000</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A705">
         <v>705</v>
       </c>
@@ -7010,7 +7065,7 @@
         <v>35250000</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A706">
         <v>706</v>
       </c>
@@ -7019,7 +7074,7 @@
         <v>35300000</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A707">
         <v>707</v>
       </c>
@@ -7028,7 +7083,7 @@
         <v>35350000</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A708">
         <v>708</v>
       </c>
@@ -7037,7 +7092,7 @@
         <v>35400000</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A709">
         <v>709</v>
       </c>
@@ -7046,7 +7101,7 @@
         <v>35450000</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A710">
         <v>710</v>
       </c>
@@ -7055,7 +7110,7 @@
         <v>35500000</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A711">
         <v>711</v>
       </c>
@@ -7064,7 +7119,7 @@
         <v>35550000</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A712">
         <v>712</v>
       </c>
@@ -7073,7 +7128,7 @@
         <v>35600000</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A713">
         <v>713</v>
       </c>
@@ -7082,7 +7137,7 @@
         <v>35650000</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A714">
         <v>714</v>
       </c>
@@ -7091,7 +7146,7 @@
         <v>35700000</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A715">
         <v>715</v>
       </c>
@@ -7100,7 +7155,7 @@
         <v>35750000</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A716">
         <v>716</v>
       </c>
@@ -7109,7 +7164,7 @@
         <v>35800000</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A717">
         <v>717</v>
       </c>
@@ -7118,7 +7173,7 @@
         <v>35850000</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A718">
         <v>718</v>
       </c>
@@ -7127,7 +7182,7 @@
         <v>35900000</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A719">
         <v>719</v>
       </c>
@@ -7136,7 +7191,7 @@
         <v>35950000</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A720">
         <v>720</v>
       </c>
@@ -7145,7 +7200,7 @@
         <v>36000000</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A721">
         <v>721</v>
       </c>
@@ -7154,7 +7209,7 @@
         <v>36050000</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A722">
         <v>722</v>
       </c>
@@ -7163,7 +7218,7 @@
         <v>36100000</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A723">
         <v>723</v>
       </c>
@@ -7172,7 +7227,7 @@
         <v>36150000</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A724">
         <v>724</v>
       </c>
@@ -7181,7 +7236,7 @@
         <v>36200000</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A725">
         <v>725</v>
       </c>
@@ -7190,7 +7245,7 @@
         <v>36250000</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A726">
         <v>726</v>
       </c>
@@ -7199,7 +7254,7 @@
         <v>36300000</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A727">
         <v>727</v>
       </c>
@@ -7208,7 +7263,7 @@
         <v>36350000</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A728">
         <v>728</v>
       </c>
@@ -7217,7 +7272,7 @@
         <v>36400000</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A729">
         <v>729</v>
       </c>
@@ -7226,7 +7281,7 @@
         <v>36450000</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A730">
         <v>730</v>
       </c>
@@ -7235,7 +7290,7 @@
         <v>36500000</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A731">
         <v>731</v>
       </c>
@@ -7244,7 +7299,7 @@
         <v>36550000</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A732">
         <v>732</v>
       </c>
@@ -7253,7 +7308,7 @@
         <v>36600000</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A733">
         <v>733</v>
       </c>
@@ -7262,7 +7317,7 @@
         <v>36650000</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A734">
         <v>734</v>
       </c>
@@ -7271,7 +7326,7 @@
         <v>36700000</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A735">
         <v>735</v>
       </c>
@@ -7280,7 +7335,7 @@
         <v>36750000</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A736">
         <v>736</v>
       </c>
@@ -7289,7 +7344,7 @@
         <v>36800000</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A737">
         <v>737</v>
       </c>
@@ -7298,7 +7353,7 @@
         <v>36850000</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A738">
         <v>738</v>
       </c>
@@ -7307,7 +7362,7 @@
         <v>36900000</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A739">
         <v>739</v>
       </c>
@@ -7316,7 +7371,7 @@
         <v>36950000</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A740">
         <v>740</v>
       </c>
@@ -7325,7 +7380,7 @@
         <v>37000000</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A741">
         <v>741</v>
       </c>
@@ -7334,7 +7389,7 @@
         <v>37050000</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A742">
         <v>742</v>
       </c>
@@ -7343,7 +7398,7 @@
         <v>37100000</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A743">
         <v>743</v>
       </c>
@@ -7352,7 +7407,7 @@
         <v>37150000</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A744">
         <v>744</v>
       </c>
@@ -7361,7 +7416,7 @@
         <v>37200000</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A745">
         <v>745</v>
       </c>
@@ -7370,7 +7425,7 @@
         <v>37250000</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A746">
         <v>746</v>
       </c>
@@ -7379,7 +7434,7 @@
         <v>37300000</v>
       </c>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A747">
         <v>747</v>
       </c>
@@ -7388,7 +7443,7 @@
         <v>37350000</v>
       </c>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A748">
         <v>748</v>
       </c>
@@ -7397,7 +7452,7 @@
         <v>37400000</v>
       </c>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A749">
         <v>749</v>
       </c>
@@ -7406,7 +7461,7 @@
         <v>37450000</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A750">
         <v>750</v>
       </c>
@@ -7415,7 +7470,7 @@
         <v>37500000</v>
       </c>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A751">
         <v>751</v>
       </c>
@@ -7424,7 +7479,7 @@
         <v>37550000</v>
       </c>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A752">
         <v>752</v>
       </c>
@@ -7433,7 +7488,7 @@
         <v>37600000</v>
       </c>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A753">
         <v>753</v>
       </c>
@@ -7442,7 +7497,7 @@
         <v>37650000</v>
       </c>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A754">
         <v>754</v>
       </c>
@@ -7451,7 +7506,7 @@
         <v>37700000</v>
       </c>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A755">
         <v>755</v>
       </c>
@@ -7460,7 +7515,7 @@
         <v>37750000</v>
       </c>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A756">
         <v>756</v>
       </c>
@@ -7469,7 +7524,7 @@
         <v>37800000</v>
       </c>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A757">
         <v>757</v>
       </c>
@@ -7478,7 +7533,7 @@
         <v>37850000</v>
       </c>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A758">
         <v>758</v>
       </c>
@@ -7487,7 +7542,7 @@
         <v>37900000</v>
       </c>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="759" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A759">
         <v>759</v>
       </c>
@@ -7496,7 +7551,7 @@
         <v>37950000</v>
       </c>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A760">
         <v>760</v>
       </c>
@@ -7505,7 +7560,7 @@
         <v>38000000</v>
       </c>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A761">
         <v>761</v>
       </c>
@@ -7514,7 +7569,7 @@
         <v>38050000</v>
       </c>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="762" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A762">
         <v>762</v>
       </c>
@@ -7523,7 +7578,7 @@
         <v>38100000</v>
       </c>
     </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A763">
         <v>763</v>
       </c>
@@ -7532,7 +7587,7 @@
         <v>38150000</v>
       </c>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A764">
         <v>764</v>
       </c>
@@ -7541,7 +7596,7 @@
         <v>38200000</v>
       </c>
     </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="765" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A765">
         <v>765</v>
       </c>
@@ -7550,7 +7605,7 @@
         <v>38250000</v>
       </c>
     </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="766" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A766">
         <v>766</v>
       </c>
@@ -7559,7 +7614,7 @@
         <v>38300000</v>
       </c>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="767" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A767">
         <v>767</v>
       </c>
@@ -7568,7 +7623,7 @@
         <v>38350000</v>
       </c>
     </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="768" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A768">
         <v>768</v>
       </c>
@@ -7577,7 +7632,7 @@
         <v>38400000</v>
       </c>
     </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="769" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A769">
         <v>769</v>
       </c>
@@ -7586,7 +7641,7 @@
         <v>38450000</v>
       </c>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="770" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A770">
         <v>770</v>
       </c>
@@ -7595,7 +7650,7 @@
         <v>38500000</v>
       </c>
     </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="771" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A771">
         <v>771</v>
       </c>
@@ -7604,7 +7659,7 @@
         <v>38550000</v>
       </c>
     </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="772" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A772">
         <v>772</v>
       </c>
@@ -7613,7 +7668,7 @@
         <v>38600000</v>
       </c>
     </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="773" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A773">
         <v>773</v>
       </c>
@@ -7622,7 +7677,7 @@
         <v>38650000</v>
       </c>
     </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A774">
         <v>774</v>
       </c>
@@ -7631,7 +7686,7 @@
         <v>38700000</v>
       </c>
     </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="775" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A775">
         <v>775</v>
       </c>
@@ -7640,7 +7695,7 @@
         <v>38750000</v>
       </c>
     </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="776" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A776">
         <v>776</v>
       </c>
@@ -7649,7 +7704,7 @@
         <v>38800000</v>
       </c>
     </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A777">
         <v>777</v>
       </c>
@@ -7658,7 +7713,7 @@
         <v>38850000</v>
       </c>
     </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A778">
         <v>778</v>
       </c>
@@ -7667,7 +7722,7 @@
         <v>38900000</v>
       </c>
     </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A779">
         <v>779</v>
       </c>
@@ -7676,7 +7731,7 @@
         <v>38950000</v>
       </c>
     </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A780">
         <v>780</v>
       </c>
@@ -7685,7 +7740,7 @@
         <v>39000000</v>
       </c>
     </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A781">
         <v>781</v>
       </c>
@@ -7694,7 +7749,7 @@
         <v>39050000</v>
       </c>
     </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A782">
         <v>782</v>
       </c>
@@ -7703,7 +7758,7 @@
         <v>39100000</v>
       </c>
     </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A783">
         <v>783</v>
       </c>
@@ -7712,7 +7767,7 @@
         <v>39150000</v>
       </c>
     </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="784" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A784">
         <v>784</v>
       </c>
@@ -7721,7 +7776,7 @@
         <v>39200000</v>
       </c>
     </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="785" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A785">
         <v>785</v>
       </c>
@@ -7730,7 +7785,7 @@
         <v>39250000</v>
       </c>
     </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="786" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A786">
         <v>786</v>
       </c>
@@ -7739,7 +7794,7 @@
         <v>39300000</v>
       </c>
     </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="787" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A787">
         <v>787</v>
       </c>
@@ -7748,7 +7803,7 @@
         <v>39350000</v>
       </c>
     </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="788" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A788">
         <v>788</v>
       </c>
@@ -7757,7 +7812,7 @@
         <v>39400000</v>
       </c>
     </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A789">
         <v>789</v>
       </c>
@@ -7766,7 +7821,7 @@
         <v>39450000</v>
       </c>
     </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="790" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A790">
         <v>790</v>
       </c>
@@ -7775,7 +7830,7 @@
         <v>39500000</v>
       </c>
     </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A791">
         <v>791</v>
       </c>
@@ -7784,7 +7839,7 @@
         <v>39550000</v>
       </c>
     </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A792">
         <v>792</v>
       </c>
@@ -7793,7 +7848,7 @@
         <v>39600000</v>
       </c>
     </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A793">
         <v>793</v>
       </c>
@@ -7802,7 +7857,7 @@
         <v>39650000</v>
       </c>
     </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A794">
         <v>794</v>
       </c>
@@ -7811,7 +7866,7 @@
         <v>39700000</v>
       </c>
     </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="795" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A795">
         <v>795</v>
       </c>
@@ -7820,7 +7875,7 @@
         <v>39750000</v>
       </c>
     </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="796" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A796">
         <v>796</v>
       </c>
@@ -7829,7 +7884,7 @@
         <v>39800000</v>
       </c>
     </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="797" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A797">
         <v>797</v>
       </c>
@@ -7838,7 +7893,7 @@
         <v>39850000</v>
       </c>
     </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="798" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A798">
         <v>798</v>
       </c>
@@ -7847,7 +7902,7 @@
         <v>39900000</v>
       </c>
     </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="799" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A799">
         <v>799</v>
       </c>
@@ -7856,7 +7911,7 @@
         <v>39950000</v>
       </c>
     </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="800" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A800">
         <v>800</v>
       </c>
@@ -7865,7 +7920,7 @@
         <v>40000000</v>
       </c>
     </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="801" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A801">
         <v>801</v>
       </c>
@@ -7874,7 +7929,7 @@
         <v>40050000</v>
       </c>
     </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="802" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A802">
         <v>802</v>
       </c>
@@ -7883,7 +7938,7 @@
         <v>40100000</v>
       </c>
     </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="803" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A803">
         <v>803</v>
       </c>
@@ -7892,7 +7947,7 @@
         <v>40150000</v>
       </c>
     </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="804" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A804">
         <v>804</v>
       </c>
@@ -7901,7 +7956,7 @@
         <v>40200000</v>
       </c>
     </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="805" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A805">
         <v>805</v>
       </c>
@@ -7910,7 +7965,7 @@
         <v>40250000</v>
       </c>
     </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="806" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A806">
         <v>806</v>
       </c>
@@ -7919,7 +7974,7 @@
         <v>40300000</v>
       </c>
     </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="807" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A807">
         <v>807</v>
       </c>
@@ -7928,7 +7983,7 @@
         <v>40350000</v>
       </c>
     </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="808" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A808">
         <v>808</v>
       </c>
@@ -7937,7 +7992,7 @@
         <v>40400000</v>
       </c>
     </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="809" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A809">
         <v>809</v>
       </c>
@@ -7946,7 +8001,7 @@
         <v>40450000</v>
       </c>
     </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="810" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A810">
         <v>810</v>
       </c>
@@ -7955,7 +8010,7 @@
         <v>40500000</v>
       </c>
     </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="811" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A811">
         <v>811</v>
       </c>
@@ -7964,7 +8019,7 @@
         <v>40550000</v>
       </c>
     </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="812" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A812">
         <v>812</v>
       </c>
@@ -7973,7 +8028,7 @@
         <v>40600000</v>
       </c>
     </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="813" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A813">
         <v>813</v>
       </c>
@@ -7982,7 +8037,7 @@
         <v>40650000</v>
       </c>
     </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="814" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A814">
         <v>814</v>
       </c>
@@ -7991,7 +8046,7 @@
         <v>40700000</v>
       </c>
     </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="815" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A815">
         <v>815</v>
       </c>
@@ -8000,7 +8055,7 @@
         <v>40750000</v>
       </c>
     </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="816" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A816">
         <v>816</v>
       </c>
@@ -8009,7 +8064,7 @@
         <v>40800000</v>
       </c>
     </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="817" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A817">
         <v>817</v>
       </c>
@@ -8018,7 +8073,7 @@
         <v>40850000</v>
       </c>
     </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="818" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A818">
         <v>818</v>
       </c>
@@ -8027,7 +8082,7 @@
         <v>40900000</v>
       </c>
     </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="819" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A819">
         <v>819</v>
       </c>
@@ -8036,7 +8091,7 @@
         <v>40950000</v>
       </c>
     </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="820" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A820">
         <v>820</v>
       </c>
@@ -8045,7 +8100,7 @@
         <v>41000000</v>
       </c>
     </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="821" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A821">
         <v>821</v>
       </c>
@@ -8054,7 +8109,7 @@
         <v>41050000</v>
       </c>
     </row>
-    <row r="822" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="822" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A822">
         <v>822</v>
       </c>
@@ -8063,7 +8118,7 @@
         <v>41100000</v>
       </c>
     </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="823" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A823">
         <v>823</v>
       </c>
@@ -8072,7 +8127,7 @@
         <v>41150000</v>
       </c>
     </row>
-    <row r="824" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="824" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A824">
         <v>824</v>
       </c>
@@ -8081,7 +8136,7 @@
         <v>41200000</v>
       </c>
     </row>
-    <row r="825" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="825" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A825">
         <v>825</v>
       </c>
@@ -8090,7 +8145,7 @@
         <v>41250000</v>
       </c>
     </row>
-    <row r="826" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="826" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A826">
         <v>826</v>
       </c>
@@ -8099,7 +8154,7 @@
         <v>41300000</v>
       </c>
     </row>
-    <row r="827" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="827" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A827">
         <v>827</v>
       </c>
@@ -8108,7 +8163,7 @@
         <v>41350000</v>
       </c>
     </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="828" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A828">
         <v>828</v>
       </c>
@@ -8117,7 +8172,7 @@
         <v>41400000</v>
       </c>
     </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="829" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A829">
         <v>829</v>
       </c>
@@ -8126,7 +8181,7 @@
         <v>41450000</v>
       </c>
     </row>
-    <row r="830" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="830" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A830">
         <v>830</v>
       </c>
@@ -8135,7 +8190,7 @@
         <v>41500000</v>
       </c>
     </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="831" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A831">
         <v>831</v>
       </c>
@@ -8144,7 +8199,7 @@
         <v>41550000</v>
       </c>
     </row>
-    <row r="832" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="832" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A832">
         <v>832</v>
       </c>
@@ -8153,7 +8208,7 @@
         <v>41600000</v>
       </c>
     </row>
-    <row r="833" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="833" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A833">
         <v>833</v>
       </c>
@@ -8162,7 +8217,7 @@
         <v>41650000</v>
       </c>
     </row>
-    <row r="834" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="834" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A834">
         <v>834</v>
       </c>
@@ -8171,7 +8226,7 @@
         <v>41700000</v>
       </c>
     </row>
-    <row r="835" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="835" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A835">
         <v>835</v>
       </c>
@@ -8180,7 +8235,7 @@
         <v>41750000</v>
       </c>
     </row>
-    <row r="836" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="836" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A836">
         <v>836</v>
       </c>
@@ -8189,7 +8244,7 @@
         <v>41800000</v>
       </c>
     </row>
-    <row r="837" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="837" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A837">
         <v>837</v>
       </c>
@@ -8198,7 +8253,7 @@
         <v>41850000</v>
       </c>
     </row>
-    <row r="838" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="838" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A838">
         <v>838</v>
       </c>
@@ -8207,7 +8262,7 @@
         <v>41900000</v>
       </c>
     </row>
-    <row r="839" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="839" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A839">
         <v>839</v>
       </c>
@@ -8216,7 +8271,7 @@
         <v>41950000</v>
       </c>
     </row>
-    <row r="840" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="840" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A840">
         <v>840</v>
       </c>
@@ -8225,7 +8280,7 @@
         <v>42000000</v>
       </c>
     </row>
-    <row r="841" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="841" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A841">
         <v>841</v>
       </c>
@@ -8234,7 +8289,7 @@
         <v>42050000</v>
       </c>
     </row>
-    <row r="842" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="842" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A842">
         <v>842</v>
       </c>
@@ -8243,7 +8298,7 @@
         <v>42100000</v>
       </c>
     </row>
-    <row r="843" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="843" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A843">
         <v>843</v>
       </c>
@@ -8252,7 +8307,7 @@
         <v>42150000</v>
       </c>
     </row>
-    <row r="844" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="844" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A844">
         <v>844</v>
       </c>
@@ -8261,7 +8316,7 @@
         <v>42200000</v>
       </c>
     </row>
-    <row r="845" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="845" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A845">
         <v>845</v>
       </c>
@@ -8270,7 +8325,7 @@
         <v>42250000</v>
       </c>
     </row>
-    <row r="846" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="846" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A846">
         <v>846</v>
       </c>
@@ -8279,7 +8334,7 @@
         <v>42300000</v>
       </c>
     </row>
-    <row r="847" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="847" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A847">
         <v>847</v>
       </c>
@@ -8288,7 +8343,7 @@
         <v>42350000</v>
       </c>
     </row>
-    <row r="848" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="848" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A848">
         <v>848</v>
       </c>
@@ -8297,7 +8352,7 @@
         <v>42400000</v>
       </c>
     </row>
-    <row r="849" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="849" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A849">
         <v>849</v>
       </c>
@@ -8306,7 +8361,7 @@
         <v>42450000</v>
       </c>
     </row>
-    <row r="850" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="850" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A850">
         <v>850</v>
       </c>
@@ -8315,7 +8370,7 @@
         <v>42500000</v>
       </c>
     </row>
-    <row r="851" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="851" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A851">
         <v>851</v>
       </c>
@@ -8324,7 +8379,7 @@
         <v>42550000</v>
       </c>
     </row>
-    <row r="852" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="852" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A852">
         <v>852</v>
       </c>
@@ -8333,7 +8388,7 @@
         <v>42600000</v>
       </c>
     </row>
-    <row r="853" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="853" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A853">
         <v>853</v>
       </c>
@@ -8342,7 +8397,7 @@
         <v>42650000</v>
       </c>
     </row>
-    <row r="854" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="854" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A854">
         <v>854</v>
       </c>
@@ -8351,7 +8406,7 @@
         <v>42700000</v>
       </c>
     </row>
-    <row r="855" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="855" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A855">
         <v>855</v>
       </c>
@@ -8360,7 +8415,7 @@
         <v>42750000</v>
       </c>
     </row>
-    <row r="856" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="856" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A856">
         <v>856</v>
       </c>
@@ -8369,7 +8424,7 @@
         <v>42800000</v>
       </c>
     </row>
-    <row r="857" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="857" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A857">
         <v>857</v>
       </c>
@@ -8378,7 +8433,7 @@
         <v>42850000</v>
       </c>
     </row>
-    <row r="858" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="858" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A858">
         <v>858</v>
       </c>
@@ -8387,7 +8442,7 @@
         <v>42900000</v>
       </c>
     </row>
-    <row r="859" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="859" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A859">
         <v>859</v>
       </c>
@@ -8396,7 +8451,7 @@
         <v>42950000</v>
       </c>
     </row>
-    <row r="860" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="860" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A860">
         <v>860</v>
       </c>
@@ -8405,7 +8460,7 @@
         <v>43000000</v>
       </c>
     </row>
-    <row r="861" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="861" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A861">
         <v>861</v>
       </c>
@@ -8414,7 +8469,7 @@
         <v>43050000</v>
       </c>
     </row>
-    <row r="862" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="862" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A862">
         <v>862</v>
       </c>
@@ -8423,7 +8478,7 @@
         <v>43100000</v>
       </c>
     </row>
-    <row r="863" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="863" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A863">
         <v>863</v>
       </c>
@@ -8432,7 +8487,7 @@
         <v>43150000</v>
       </c>
     </row>
-    <row r="864" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="864" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A864">
         <v>864</v>
       </c>
@@ -8441,7 +8496,7 @@
         <v>43200000</v>
       </c>
     </row>
-    <row r="865" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="865" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A865">
         <v>865</v>
       </c>
@@ -8450,7 +8505,7 @@
         <v>43250000</v>
       </c>
     </row>
-    <row r="866" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="866" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A866">
         <v>866</v>
       </c>
@@ -8459,7 +8514,7 @@
         <v>43300000</v>
       </c>
     </row>
-    <row r="867" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="867" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A867">
         <v>867</v>
       </c>
@@ -8468,7 +8523,7 @@
         <v>43350000</v>
       </c>
     </row>
-    <row r="868" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="868" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A868">
         <v>868</v>
       </c>
@@ -8477,7 +8532,7 @@
         <v>43400000</v>
       </c>
     </row>
-    <row r="869" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="869" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A869">
         <v>869</v>
       </c>
@@ -8486,7 +8541,7 @@
         <v>43450000</v>
       </c>
     </row>
-    <row r="870" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="870" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A870">
         <v>870</v>
       </c>
@@ -8495,7 +8550,7 @@
         <v>43500000</v>
       </c>
     </row>
-    <row r="871" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="871" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A871">
         <v>871</v>
       </c>
@@ -8504,7 +8559,7 @@
         <v>43550000</v>
       </c>
     </row>
-    <row r="872" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="872" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A872">
         <v>872</v>
       </c>
@@ -8513,7 +8568,7 @@
         <v>43600000</v>
       </c>
     </row>
-    <row r="873" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="873" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A873">
         <v>873</v>
       </c>
@@ -8522,7 +8577,7 @@
         <v>43650000</v>
       </c>
     </row>
-    <row r="874" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="874" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A874">
         <v>874</v>
       </c>
@@ -8531,7 +8586,7 @@
         <v>43700000</v>
       </c>
     </row>
-    <row r="875" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="875" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A875">
         <v>875</v>
       </c>
@@ -8540,7 +8595,7 @@
         <v>43750000</v>
       </c>
     </row>
-    <row r="876" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="876" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A876">
         <v>876</v>
       </c>
@@ -8549,7 +8604,7 @@
         <v>43800000</v>
       </c>
     </row>
-    <row r="877" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="877" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A877">
         <v>877</v>
       </c>
@@ -8558,7 +8613,7 @@
         <v>43850000</v>
       </c>
     </row>
-    <row r="878" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="878" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A878">
         <v>878</v>
       </c>
@@ -8567,7 +8622,7 @@
         <v>43900000</v>
       </c>
     </row>
-    <row r="879" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="879" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A879">
         <v>879</v>
       </c>
@@ -8576,7 +8631,7 @@
         <v>43950000</v>
       </c>
     </row>
-    <row r="880" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="880" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A880">
         <v>880</v>
       </c>
@@ -8585,7 +8640,7 @@
         <v>44000000</v>
       </c>
     </row>
-    <row r="881" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="881" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A881">
         <v>881</v>
       </c>
@@ -8594,7 +8649,7 @@
         <v>44050000</v>
       </c>
     </row>
-    <row r="882" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="882" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A882">
         <v>882</v>
       </c>
@@ -8603,7 +8658,7 @@
         <v>44100000</v>
       </c>
     </row>
-    <row r="883" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="883" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A883">
         <v>883</v>
       </c>
@@ -8612,7 +8667,7 @@
         <v>44150000</v>
       </c>
     </row>
-    <row r="884" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="884" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A884">
         <v>884</v>
       </c>
@@ -8621,7 +8676,7 @@
         <v>44200000</v>
       </c>
     </row>
-    <row r="885" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="885" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A885">
         <v>885</v>
       </c>
@@ -8630,7 +8685,7 @@
         <v>44250000</v>
       </c>
     </row>
-    <row r="886" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="886" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A886">
         <v>886</v>
       </c>
@@ -8639,7 +8694,7 @@
         <v>44300000</v>
       </c>
     </row>
-    <row r="887" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="887" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A887">
         <v>887</v>
       </c>
@@ -8648,7 +8703,7 @@
         <v>44350000</v>
       </c>
     </row>
-    <row r="888" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="888" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A888">
         <v>888</v>
       </c>
@@ -8657,7 +8712,7 @@
         <v>44400000</v>
       </c>
     </row>
-    <row r="889" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="889" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A889">
         <v>889</v>
       </c>
@@ -8666,7 +8721,7 @@
         <v>44450000</v>
       </c>
     </row>
-    <row r="890" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="890" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A890">
         <v>890</v>
       </c>
@@ -8675,7 +8730,7 @@
         <v>44500000</v>
       </c>
     </row>
-    <row r="891" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="891" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A891">
         <v>891</v>
       </c>
@@ -8684,7 +8739,7 @@
         <v>44550000</v>
       </c>
     </row>
-    <row r="892" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="892" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A892">
         <v>892</v>
       </c>
@@ -8693,7 +8748,7 @@
         <v>44600000</v>
       </c>
     </row>
-    <row r="893" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="893" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A893">
         <v>893</v>
       </c>
@@ -8702,7 +8757,7 @@
         <v>44650000</v>
       </c>
     </row>
-    <row r="894" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="894" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A894">
         <v>894</v>
       </c>
@@ -8711,7 +8766,7 @@
         <v>44700000</v>
       </c>
     </row>
-    <row r="895" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="895" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A895">
         <v>895</v>
       </c>
@@ -8720,7 +8775,7 @@
         <v>44750000</v>
       </c>
     </row>
-    <row r="896" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="896" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A896">
         <v>896</v>
       </c>
@@ -8729,7 +8784,7 @@
         <v>44800000</v>
       </c>
     </row>
-    <row r="897" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="897" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A897">
         <v>897</v>
       </c>
@@ -8738,7 +8793,7 @@
         <v>44850000</v>
       </c>
     </row>
-    <row r="898" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="898" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A898">
         <v>898</v>
       </c>
@@ -8747,7 +8802,7 @@
         <v>44900000</v>
       </c>
     </row>
-    <row r="899" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="899" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A899">
         <v>899</v>
       </c>
@@ -8756,7 +8811,7 @@
         <v>44950000</v>
       </c>
     </row>
-    <row r="900" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="900" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A900">
         <v>900</v>
       </c>
@@ -8765,7 +8820,7 @@
         <v>45000000</v>
       </c>
     </row>
-    <row r="901" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="901" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A901">
         <v>901</v>
       </c>
@@ -8774,7 +8829,7 @@
         <v>45050000</v>
       </c>
     </row>
-    <row r="902" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="902" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A902">
         <v>902</v>
       </c>
@@ -8783,7 +8838,7 @@
         <v>45100000</v>
       </c>
     </row>
-    <row r="903" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="903" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A903">
         <v>903</v>
       </c>
@@ -8792,7 +8847,7 @@
         <v>45150000</v>
       </c>
     </row>
-    <row r="904" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="904" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A904">
         <v>904</v>
       </c>
@@ -8801,7 +8856,7 @@
         <v>45200000</v>
       </c>
     </row>
-    <row r="905" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="905" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A905">
         <v>905</v>
       </c>
@@ -8810,7 +8865,7 @@
         <v>45250000</v>
       </c>
     </row>
-    <row r="906" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="906" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A906">
         <v>906</v>
       </c>
@@ -8819,7 +8874,7 @@
         <v>45300000</v>
       </c>
     </row>
-    <row r="907" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="907" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A907">
         <v>907</v>
       </c>
@@ -8828,7 +8883,7 @@
         <v>45350000</v>
       </c>
     </row>
-    <row r="908" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="908" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A908">
         <v>908</v>
       </c>
@@ -8837,7 +8892,7 @@
         <v>45400000</v>
       </c>
     </row>
-    <row r="909" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="909" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A909">
         <v>909</v>
       </c>
@@ -8846,7 +8901,7 @@
         <v>45450000</v>
       </c>
     </row>
-    <row r="910" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="910" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A910">
         <v>910</v>
       </c>
@@ -8855,7 +8910,7 @@
         <v>45500000</v>
       </c>
     </row>
-    <row r="911" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="911" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A911">
         <v>911</v>
       </c>
@@ -8864,7 +8919,7 @@
         <v>45550000</v>
       </c>
     </row>
-    <row r="912" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="912" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A912">
         <v>912</v>
       </c>
@@ -8873,7 +8928,7 @@
         <v>45600000</v>
       </c>
     </row>
-    <row r="913" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="913" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A913">
         <v>913</v>
       </c>
@@ -8882,7 +8937,7 @@
         <v>45650000</v>
       </c>
     </row>
-    <row r="914" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="914" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A914">
         <v>914</v>
       </c>
@@ -8891,7 +8946,7 @@
         <v>45700000</v>
       </c>
     </row>
-    <row r="915" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="915" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A915">
         <v>915</v>
       </c>
@@ -8900,7 +8955,7 @@
         <v>45750000</v>
       </c>
     </row>
-    <row r="916" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="916" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A916">
         <v>916</v>
       </c>
@@ -8909,7 +8964,7 @@
         <v>45800000</v>
       </c>
     </row>
-    <row r="917" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="917" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A917">
         <v>917</v>
       </c>
@@ -8918,7 +8973,7 @@
         <v>45850000</v>
       </c>
     </row>
-    <row r="918" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="918" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A918">
         <v>918</v>
       </c>
@@ -8927,7 +8982,7 @@
         <v>45900000</v>
       </c>
     </row>
-    <row r="919" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="919" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A919">
         <v>919</v>
       </c>
@@ -8936,7 +8991,7 @@
         <v>45950000</v>
       </c>
     </row>
-    <row r="920" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="920" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A920">
         <v>920</v>
       </c>
@@ -8945,7 +9000,7 @@
         <v>46000000</v>
       </c>
     </row>
-    <row r="921" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="921" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A921">
         <v>921</v>
       </c>
@@ -8954,7 +9009,7 @@
         <v>46050000</v>
       </c>
     </row>
-    <row r="922" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="922" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A922">
         <v>922</v>
       </c>
@@ -8963,7 +9018,7 @@
         <v>46100000</v>
       </c>
     </row>
-    <row r="923" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="923" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A923">
         <v>923</v>
       </c>
@@ -8972,7 +9027,7 @@
         <v>46150000</v>
       </c>
     </row>
-    <row r="924" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="924" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A924">
         <v>924</v>
       </c>
@@ -8981,7 +9036,7 @@
         <v>46200000</v>
       </c>
     </row>
-    <row r="925" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="925" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A925">
         <v>925</v>
       </c>
@@ -8990,7 +9045,7 @@
         <v>46250000</v>
       </c>
     </row>
-    <row r="926" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="926" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A926">
         <v>926</v>
       </c>
@@ -8999,7 +9054,7 @@
         <v>46300000</v>
       </c>
     </row>
-    <row r="927" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="927" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A927">
         <v>927</v>
       </c>
@@ -9008,7 +9063,7 @@
         <v>46350000</v>
       </c>
     </row>
-    <row r="928" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="928" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A928">
         <v>928</v>
       </c>
@@ -9017,7 +9072,7 @@
         <v>46400000</v>
       </c>
     </row>
-    <row r="929" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="929" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A929">
         <v>929</v>
       </c>
@@ -9026,7 +9081,7 @@
         <v>46450000</v>
       </c>
     </row>
-    <row r="930" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="930" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A930">
         <v>930</v>
       </c>
@@ -9035,7 +9090,7 @@
         <v>46500000</v>
       </c>
     </row>
-    <row r="931" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="931" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A931">
         <v>931</v>
       </c>
@@ -9044,7 +9099,7 @@
         <v>46550000</v>
       </c>
     </row>
-    <row r="932" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="932" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A932">
         <v>932</v>
       </c>
@@ -9053,7 +9108,7 @@
         <v>46600000</v>
       </c>
     </row>
-    <row r="933" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="933" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A933">
         <v>933</v>
       </c>
@@ -9062,7 +9117,7 @@
         <v>46650000</v>
       </c>
     </row>
-    <row r="934" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="934" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A934">
         <v>934</v>
       </c>
@@ -9071,7 +9126,7 @@
         <v>46700000</v>
       </c>
     </row>
-    <row r="935" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="935" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A935">
         <v>935</v>
       </c>
@@ -9080,7 +9135,7 @@
         <v>46750000</v>
       </c>
     </row>
-    <row r="936" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="936" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A936">
         <v>936</v>
       </c>
@@ -9089,7 +9144,7 @@
         <v>46800000</v>
       </c>
     </row>
-    <row r="937" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="937" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A937">
         <v>937</v>
       </c>
@@ -9098,7 +9153,7 @@
         <v>46850000</v>
       </c>
     </row>
-    <row r="938" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="938" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A938">
         <v>938</v>
       </c>
@@ -9107,7 +9162,7 @@
         <v>46900000</v>
       </c>
     </row>
-    <row r="939" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="939" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A939">
         <v>939</v>
       </c>
@@ -9116,7 +9171,7 @@
         <v>46950000</v>
       </c>
     </row>
-    <row r="940" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="940" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A940">
         <v>940</v>
       </c>
@@ -9125,7 +9180,7 @@
         <v>47000000</v>
       </c>
     </row>
-    <row r="941" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="941" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A941">
         <v>941</v>
       </c>
@@ -9134,7 +9189,7 @@
         <v>47050000</v>
       </c>
     </row>
-    <row r="942" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="942" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A942">
         <v>942</v>
       </c>
@@ -9143,7 +9198,7 @@
         <v>47100000</v>
       </c>
     </row>
-    <row r="943" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="943" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A943">
         <v>943</v>
       </c>
@@ -9152,7 +9207,7 @@
         <v>47150000</v>
       </c>
     </row>
-    <row r="944" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="944" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A944">
         <v>944</v>
       </c>
@@ -9161,7 +9216,7 @@
         <v>47200000</v>
       </c>
     </row>
-    <row r="945" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="945" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A945">
         <v>945</v>
       </c>
@@ -9170,7 +9225,7 @@
         <v>47250000</v>
       </c>
     </row>
-    <row r="946" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="946" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A946">
         <v>946</v>
       </c>
@@ -9179,7 +9234,7 @@
         <v>47300000</v>
       </c>
     </row>
-    <row r="947" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="947" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A947">
         <v>947</v>
       </c>
@@ -9188,7 +9243,7 @@
         <v>47350000</v>
       </c>
     </row>
-    <row r="948" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="948" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A948">
         <v>948</v>
       </c>
@@ -9197,7 +9252,7 @@
         <v>47400000</v>
       </c>
     </row>
-    <row r="949" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="949" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A949">
         <v>949</v>
       </c>
@@ -9206,7 +9261,7 @@
         <v>47450000</v>
       </c>
     </row>
-    <row r="950" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="950" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A950">
         <v>950</v>
       </c>
@@ -9215,7 +9270,7 @@
         <v>47500000</v>
       </c>
     </row>
-    <row r="951" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="951" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A951">
         <v>951</v>
       </c>
@@ -9224,7 +9279,7 @@
         <v>47550000</v>
       </c>
     </row>
-    <row r="952" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="952" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A952">
         <v>952</v>
       </c>
@@ -9233,7 +9288,7 @@
         <v>47600000</v>
       </c>
     </row>
-    <row r="953" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="953" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A953">
         <v>953</v>
       </c>
@@ -9242,7 +9297,7 @@
         <v>47650000</v>
       </c>
     </row>
-    <row r="954" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="954" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A954">
         <v>954</v>
       </c>
@@ -9251,7 +9306,7 @@
         <v>47700000</v>
       </c>
     </row>
-    <row r="955" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="955" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A955">
         <v>955</v>
       </c>
@@ -9260,7 +9315,7 @@
         <v>47750000</v>
       </c>
     </row>
-    <row r="956" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="956" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A956">
         <v>956</v>
       </c>
@@ -9269,7 +9324,7 @@
         <v>47800000</v>
       </c>
     </row>
-    <row r="957" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="957" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A957">
         <v>957</v>
       </c>
@@ -9278,7 +9333,7 @@
         <v>47850000</v>
       </c>
     </row>
-    <row r="958" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="958" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A958">
         <v>958</v>
       </c>
@@ -9287,7 +9342,7 @@
         <v>47900000</v>
       </c>
     </row>
-    <row r="959" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="959" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A959">
         <v>959</v>
       </c>
@@ -9296,7 +9351,7 @@
         <v>47950000</v>
       </c>
     </row>
-    <row r="960" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="960" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A960">
         <v>960</v>
       </c>
@@ -9305,7 +9360,7 @@
         <v>48000000</v>
       </c>
     </row>
-    <row r="961" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="961" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A961">
         <v>961</v>
       </c>
@@ -9314,7 +9369,7 @@
         <v>48050000</v>
       </c>
     </row>
-    <row r="962" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="962" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A962">
         <v>962</v>
       </c>
@@ -9323,7 +9378,7 @@
         <v>48100000</v>
       </c>
     </row>
-    <row r="963" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="963" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A963">
         <v>963</v>
       </c>
@@ -9332,7 +9387,7 @@
         <v>48150000</v>
       </c>
     </row>
-    <row r="964" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="964" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A964">
         <v>964</v>
       </c>
@@ -9341,7 +9396,7 @@
         <v>48200000</v>
       </c>
     </row>
-    <row r="965" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="965" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A965">
         <v>965</v>
       </c>
@@ -9350,7 +9405,7 @@
         <v>48250000</v>
       </c>
     </row>
-    <row r="966" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="966" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A966">
         <v>966</v>
       </c>
@@ -9359,7 +9414,7 @@
         <v>48300000</v>
       </c>
     </row>
-    <row r="967" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="967" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A967">
         <v>967</v>
       </c>
@@ -9368,7 +9423,7 @@
         <v>48350000</v>
       </c>
     </row>
-    <row r="968" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="968" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A968">
         <v>968</v>
       </c>
@@ -9377,7 +9432,7 @@
         <v>48400000</v>
       </c>
     </row>
-    <row r="969" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="969" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A969">
         <v>969</v>
       </c>
@@ -9386,7 +9441,7 @@
         <v>48450000</v>
       </c>
     </row>
-    <row r="970" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="970" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A970">
         <v>970</v>
       </c>
@@ -9395,7 +9450,7 @@
         <v>48500000</v>
       </c>
     </row>
-    <row r="971" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="971" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A971">
         <v>971</v>
       </c>
@@ -9404,7 +9459,7 @@
         <v>48550000</v>
       </c>
     </row>
-    <row r="972" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="972" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A972">
         <v>972</v>
       </c>
@@ -9413,7 +9468,7 @@
         <v>48600000</v>
       </c>
     </row>
-    <row r="973" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="973" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A973">
         <v>973</v>
       </c>
@@ -9422,7 +9477,7 @@
         <v>48650000</v>
       </c>
     </row>
-    <row r="974" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="974" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A974">
         <v>974</v>
       </c>
@@ -9431,7 +9486,7 @@
         <v>48700000</v>
       </c>
     </row>
-    <row r="975" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="975" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A975">
         <v>975</v>
       </c>
@@ -9440,7 +9495,7 @@
         <v>48750000</v>
       </c>
     </row>
-    <row r="976" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="976" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A976">
         <v>976</v>
       </c>
@@ -9449,7 +9504,7 @@
         <v>48800000</v>
       </c>
     </row>
-    <row r="977" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="977" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A977">
         <v>977</v>
       </c>
@@ -9458,7 +9513,7 @@
         <v>48850000</v>
       </c>
     </row>
-    <row r="978" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="978" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A978">
         <v>978</v>
       </c>
@@ -9467,7 +9522,7 @@
         <v>48900000</v>
       </c>
     </row>
-    <row r="979" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="979" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A979">
         <v>979</v>
       </c>
@@ -9476,7 +9531,7 @@
         <v>48950000</v>
       </c>
     </row>
-    <row r="980" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="980" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A980">
         <v>980</v>
       </c>
@@ -9485,7 +9540,7 @@
         <v>49000000</v>
       </c>
     </row>
-    <row r="981" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="981" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A981">
         <v>981</v>
       </c>
@@ -9494,7 +9549,7 @@
         <v>49050000</v>
       </c>
     </row>
-    <row r="982" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="982" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A982">
         <v>982</v>
       </c>
@@ -9503,7 +9558,7 @@
         <v>49100000</v>
       </c>
     </row>
-    <row r="983" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="983" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A983">
         <v>983</v>
       </c>
@@ -9512,7 +9567,7 @@
         <v>49150000</v>
       </c>
     </row>
-    <row r="984" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="984" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A984">
         <v>984</v>
       </c>
@@ -9521,7 +9576,7 @@
         <v>49200000</v>
       </c>
     </row>
-    <row r="985" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="985" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A985">
         <v>985</v>
       </c>
@@ -9530,7 +9585,7 @@
         <v>49250000</v>
       </c>
     </row>
-    <row r="986" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="986" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A986">
         <v>986</v>
       </c>
@@ -9539,7 +9594,7 @@
         <v>49300000</v>
       </c>
     </row>
-    <row r="987" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="987" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A987">
         <v>987</v>
       </c>
@@ -9548,7 +9603,7 @@
         <v>49350000</v>
       </c>
     </row>
-    <row r="988" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="988" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A988">
         <v>988</v>
       </c>
@@ -9557,7 +9612,7 @@
         <v>49400000</v>
       </c>
     </row>
-    <row r="989" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="989" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A989">
         <v>989</v>
       </c>
@@ -9566,7 +9621,7 @@
         <v>49450000</v>
       </c>
     </row>
-    <row r="990" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="990" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A990">
         <v>990</v>
       </c>
@@ -9575,7 +9630,7 @@
         <v>49500000</v>
       </c>
     </row>
-    <row r="991" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="991" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A991">
         <v>991</v>
       </c>
@@ -9584,7 +9639,7 @@
         <v>49550000</v>
       </c>
     </row>
-    <row r="992" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="992" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A992">
         <v>992</v>
       </c>
@@ -9593,7 +9648,7 @@
         <v>49600000</v>
       </c>
     </row>
-    <row r="993" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="993" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A993">
         <v>993</v>
       </c>
@@ -9602,7 +9657,7 @@
         <v>49650000</v>
       </c>
     </row>
-    <row r="994" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="994" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A994">
         <v>994</v>
       </c>
@@ -9611,7 +9666,7 @@
         <v>49700000</v>
       </c>
     </row>
-    <row r="995" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="995" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A995">
         <v>995</v>
       </c>
@@ -9620,7 +9675,7 @@
         <v>49750000</v>
       </c>
     </row>
-    <row r="996" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="996" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A996">
         <v>996</v>
       </c>
@@ -9629,7 +9684,7 @@
         <v>49800000</v>
       </c>
     </row>
-    <row r="997" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="997" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A997">
         <v>997</v>
       </c>
@@ -9638,7 +9693,7 @@
         <v>49850000</v>
       </c>
     </row>
-    <row r="998" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="998" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A998">
         <v>998</v>
       </c>
@@ -9647,7 +9702,7 @@
         <v>49900000</v>
       </c>
     </row>
-    <row r="999" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="999" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A999">
         <v>999</v>
       </c>
@@ -9656,7 +9711,7 @@
         <v>49950000</v>
       </c>
     </row>
-    <row r="1000" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1000">
         <v>1000</v>
       </c>

--- a/Assets/06.Table/PetEquipment.xlsx
+++ b/Assets/06.Table/PetEquipment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6A5969-8A6E-4FAE-AB2F-ACE21B6CC779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CBC465-B5E5-4802-A616-DB83AF8D7E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="4065" yWindow="1275" windowWidth="31890" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetEquipment" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,13 +144,26 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -162,17 +175,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -488,7 +508,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -501,10 +521,10 @@
     <col min="6" max="6" width="21.25" customWidth="1"/>
     <col min="7" max="7" width="26.625" customWidth="1"/>
     <col min="8" max="8" width="26.125" customWidth="1"/>
-    <col min="9" max="9" width="14.25" customWidth="1"/>
+    <col min="9" max="9" width="10.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="26.25" customWidth="1"/>
-    <col min="12" max="12" width="17.625" customWidth="1"/>
+    <col min="11" max="11" width="15.625" customWidth="1"/>
+    <col min="12" max="12" width="9.875" style="1" customWidth="1"/>
     <col min="13" max="13" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -533,7 +553,7 @@
       <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J1" t="s">
@@ -542,7 +562,7 @@
       <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M1" t="s">
@@ -580,7 +600,7 @@
       <c r="H2">
         <v>8</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>12</v>
       </c>
       <c r="J2">
@@ -589,7 +609,7 @@
       <c r="K2">
         <v>900</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <v>17</v>
       </c>
       <c r="M2">
@@ -627,7 +647,7 @@
       <c r="H3">
         <v>9</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>4</v>
       </c>
       <c r="J3">
@@ -636,7 +656,7 @@
       <c r="K3">
         <v>1</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <v>22</v>
       </c>
       <c r="M3">
@@ -663,7 +683,7 @@
         <v>10000000</v>
       </c>
       <c r="E4">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -674,8 +694,8 @@
       <c r="H4">
         <v>10</v>
       </c>
-      <c r="I4">
-        <v>4</v>
+      <c r="I4" s="1">
+        <v>18</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -683,14 +703,14 @@
       <c r="K4">
         <v>1</v>
       </c>
-      <c r="L4">
-        <v>22</v>
+      <c r="L4" s="1">
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="O4" t="s">
         <v>21</v>

--- a/Assets/06.Table/PetEquipment.xlsx
+++ b/Assets/06.Table/PetEquipment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CBC465-B5E5-4802-A616-DB83AF8D7E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0426A9B2-9D13-40E5-81F2-3A14B9574ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="1275" windowWidth="31890" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetEquipment" sheetId="1" r:id="rId1"/>
@@ -508,7 +508,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/PetEquipment.xlsx
+++ b/Assets/06.Table/PetEquipment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0426A9B2-9D13-40E5-81F2-3A14B9574ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6308FE48-09E6-41E3-A910-189ADF29D681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="3195" yWindow="2685" windowWidth="31890" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetEquipment" sheetId="1" r:id="rId1"/>
@@ -508,7 +508,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -680,10 +680,10 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>10000000</v>
+        <v>20000000</v>
       </c>
       <c r="E4">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -695,22 +695,22 @@
         <v>10</v>
       </c>
       <c r="I4" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="L4" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.0000000000000001E-4</v>
+        <v>1.5E-3</v>
       </c>
       <c r="O4" t="s">
         <v>21</v>

--- a/Assets/06.Table/PetEquipment.xlsx
+++ b/Assets/06.Table/PetEquipment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6308FE48-09E6-41E3-A910-189ADF29D681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461F8979-3865-4D5A-BA02-BA680C0B9047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="2685" windowWidth="31890" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-840" yWindow="2370" windowWidth="31890" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetEquipment" sheetId="1" r:id="rId1"/>
@@ -508,7 +508,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.5E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="O4" t="s">
         <v>21</v>

--- a/Assets/06.Table/PetEquipment.xlsx
+++ b/Assets/06.Table/PetEquipment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461F8979-3865-4D5A-BA02-BA680C0B9047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38557B67-58FB-43BF-BA0E-9749CE77B7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-840" yWindow="2370" windowWidth="31890" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -508,7 +508,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="O4" t="s">
         <v>21</v>

--- a/Assets/06.Table/PetEquipment.xlsx
+++ b/Assets/06.Table/PetEquipment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38557B67-58FB-43BF-BA0E-9749CE77B7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2093EB13-E2E5-4857-B6E9-FA00EE8FF2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-840" yWindow="2370" windowWidth="31890" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetEquipment" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,6 +121,13 @@
   </si>
   <si>
     <t>주작 반지(1성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>petequip3</t>
+  </si>
+  <si>
+    <t>청룡 목걸이(1성)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -714,6 +721,53 @@
       </c>
       <c r="O4" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>20000000</v>
+      </c>
+      <c r="E5">
+        <v>80000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>1000</v>
+      </c>
+      <c r="H5">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1">
+        <v>24</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="L5" s="1">
+        <v>25</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1.5E-3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/PetEquipment.xlsx
+++ b/Assets/06.Table/PetEquipment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2093EB13-E2E5-4857-B6E9-FA00EE8FF2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34534E4-1A56-4097-816C-DE20A6055C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-780" yWindow="3495" windowWidth="35730" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetEquipment" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,15 +104,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>현무 갑주(1성)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>petequip1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백호 부적(1성)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -120,14 +112,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주작 반지(1성)</t>
+    <t>petequip3</t>
+  </si>
+  <si>
+    <t>levelAddValue1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>petequip3</t>
+    <t>levelAddValue2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>청룡 목걸이(1성)</t>
+    <t>현무 갑주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백호 부적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주작 반지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡 목걸이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,7 +143,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,8 +167,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,6 +186,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -182,23 +203,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="나쁨" xfId="2" builtinId="27"/>
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -512,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -533,9 +561,11 @@
     <col min="11" max="11" width="15.625" customWidth="1"/>
     <col min="12" max="12" width="9.875" style="1" customWidth="1"/>
     <col min="13" max="13" width="18.75" customWidth="1"/>
+    <col min="14" max="14" width="21.625" customWidth="1"/>
+    <col min="15" max="15" width="41.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -581,8 +611,14 @@
       <c r="O1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -626,15 +662,21 @@
         <v>1E-3</v>
       </c>
       <c r="O2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="P2">
+        <v>5000</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -673,15 +715,21 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="P3">
+        <v>250</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>9</v>
@@ -720,15 +768,21 @@
         <v>1.5E-3</v>
       </c>
       <c r="O4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>9</v>
@@ -767,7 +821,13 @@
         <v>1.5E-3</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/PetEquipment.xlsx
+++ b/Assets/06.Table/PetEquipment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34534E4-1A56-4097-816C-DE20A6055C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57157924-4B87-42CD-BD7E-48CAF53003A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-780" yWindow="3495" windowWidth="35730" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-780" yWindow="2370" windowWidth="37680" windowHeight="16185" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetEquipment" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,38 @@
   </si>
   <si>
     <t>청룡 목걸이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>petequip4</t>
+  </si>
+  <si>
+    <t>petequip5</t>
+  </si>
+  <si>
+    <t>petequip6</t>
+  </si>
+  <si>
+    <t>petequip7</t>
+  </si>
+  <si>
+    <t>needPetAwakeLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현무 갑주(각성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백호 부적(각성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주작 반지(각성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡 목걸이(각성)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -540,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -563,9 +595,11 @@
     <col min="13" max="13" width="18.75" customWidth="1"/>
     <col min="14" max="14" width="21.625" customWidth="1"/>
     <col min="15" max="15" width="41.375" customWidth="1"/>
+    <col min="16" max="16" width="17.125" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -617,8 +651,11 @@
       <c r="Q1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -670,8 +707,11 @@
       <c r="Q2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -723,8 +763,11 @@
       <c r="Q3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -776,8 +819,11 @@
       <c r="Q4">
         <v>7.4999999999999997E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -828,6 +874,233 @@
       </c>
       <c r="Q5">
         <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>10000000</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>25</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Q6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="R6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>10000000</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>25</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="Q7">
+        <v>0.04</v>
+      </c>
+      <c r="R7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>10000000</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>25</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="Q8">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R8">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>10000000</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>25</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="Q9">
+        <v>0.05</v>
+      </c>
+      <c r="R9">
+        <v>2500</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/PetEquipment.xlsx
+++ b/Assets/06.Table/PetEquipment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57157924-4B87-42CD-BD7E-48CAF53003A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595DFC93-EE26-4D15-BA76-756CF35B6608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-780" yWindow="2370" windowWidth="37680" windowHeight="16185" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetEquipment" sheetId="1" r:id="rId1"/>
@@ -575,7 +575,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -926,10 +926,10 @@
         <v>31</v>
       </c>
       <c r="P6" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="Q6">
-        <v>3.5000000000000003E-2</v>
+        <v>0.04</v>
       </c>
       <c r="R6">
         <v>1000</v>
@@ -982,10 +982,10 @@
         <v>32</v>
       </c>
       <c r="P7" s="2">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="Q7">
-        <v>0.04</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="R7">
         <v>1500</v>
@@ -1038,10 +1038,10 @@
         <v>33</v>
       </c>
       <c r="P8" s="2">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="Q8">
-        <v>4.4999999999999998E-2</v>
+        <v>0.05</v>
       </c>
       <c r="R8">
         <v>2000</v>
@@ -1094,10 +1094,10 @@
         <v>34</v>
       </c>
       <c r="P9" s="2">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="Q9">
-        <v>0.05</v>
+        <v>5.5E-2</v>
       </c>
       <c r="R9">
         <v>2500</v>

--- a/Assets/06.Table/PetEquipment.xlsx
+++ b/Assets/06.Table/PetEquipment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595DFC93-EE26-4D15-BA76-756CF35B6608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3215088-4EFA-45E6-9976-BC665AAEC5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,6 +169,18 @@
   <si>
     <t>청룡 목걸이(각성)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>petequip8</t>
+  </si>
+  <si>
+    <t>petequip9</t>
+  </si>
+  <si>
+    <t>petequip10</t>
+  </si>
+  <si>
+    <t>petequip11</t>
   </si>
 </sst>
 </file>
@@ -572,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1103,6 +1115,230 @@
         <v>2500</v>
       </c>
     </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>10000000</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>11</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>25</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q10">
+        <v>5.5E-2</v>
+      </c>
+      <c r="R10">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>10000000</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>11</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>25</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q11">
+        <v>5.5E-2</v>
+      </c>
+      <c r="R11">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>10000000</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>11</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>25</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>33</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q12">
+        <v>5.5E-2</v>
+      </c>
+      <c r="R12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>10000000</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>11</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>25</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q13">
+        <v>5.5E-2</v>
+      </c>
+      <c r="R13">
+        <v>6000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/PetEquipment.xlsx
+++ b/Assets/06.Table/PetEquipment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3215088-4EFA-45E6-9976-BC665AAEC5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C6A41D-0808-44DC-AEF5-87EC8D4B6ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,22 +155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>현무 갑주(각성)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백호 부적(각성)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주작 반지(각성)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청룡 목걸이(각성)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>petequip8</t>
   </si>
   <si>
@@ -181,6 +165,38 @@
   </si>
   <si>
     <t>petequip11</t>
+  </si>
+  <si>
+    <t>현무 갑주(각성2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백호 부적(각성2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주작 반지(각성2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡 목걸이(각성2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현무 갑주(각성1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백호 부적(각성1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주작 반지(각성1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡 목걸이(각성1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -586,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -935,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="P6" s="2">
         <v>0.35</v>
@@ -991,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P7" s="2">
         <v>0.4</v>
@@ -1047,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="P8" s="2">
         <v>0.45</v>
@@ -1103,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="P9" s="2">
         <v>0.5</v>
@@ -1120,7 +1136,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1159,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="P10" s="2">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q10">
-        <v>5.5E-2</v>
+        <v>0.06</v>
       </c>
       <c r="R10">
         <v>3000</v>
@@ -1176,7 +1192,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -1215,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="P11" s="2">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="Q11">
-        <v>5.5E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="R11">
         <v>4000</v>
@@ -1232,7 +1248,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C12">
         <v>9</v>
@@ -1271,13 +1287,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="P12" s="2">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="Q12">
-        <v>5.5E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="R12">
         <v>5000</v>
@@ -1288,7 +1304,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C13">
         <v>9</v>
@@ -1327,13 +1343,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P13" s="2">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="Q13">
-        <v>5.5E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="R13">
         <v>6000</v>

--- a/Assets/06.Table/PetEquipment.xlsx
+++ b/Assets/06.Table/PetEquipment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C6A41D-0808-44DC-AEF5-87EC8D4B6ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EC5E1B-E66D-4DD2-ACD2-7674BC397D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,6 +196,34 @@
   </si>
   <si>
     <t>청룡 목걸이(각성1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>petequip12</t>
+  </si>
+  <si>
+    <t>petequip13</t>
+  </si>
+  <si>
+    <t>petequip14</t>
+  </si>
+  <si>
+    <t>petequip15</t>
+  </si>
+  <si>
+    <t>현무 갑주(각성3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백호 부적(각성3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주작 반지(각성3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡 목걸이(각성3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1355,6 +1383,230 @@
         <v>6000</v>
       </c>
     </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>10000000</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>11</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>25</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>47</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="Q14">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R14">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>10000000</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>11</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>25</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>48</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="Q15">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R15">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>10000000</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>11</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>25</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" t="s">
+        <v>49</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="Q16">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R16">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>10000000</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>11</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>25</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>50</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="Q17">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R17">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/PetEquipment.xlsx
+++ b/Assets/06.Table/PetEquipment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EC5E1B-E66D-4DD2-ACD2-7674BC397D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C14A24-95E6-474F-860E-3596266756E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -231,7 +231,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,8 +263,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,6 +289,11 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -291,7 +304,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -301,8 +314,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -312,9 +328,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="나쁨" xfId="2" builtinId="27"/>
+    <cellStyle name="보통" xfId="3" builtinId="28"/>
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -631,7 +651,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1383,228 +1403,228 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>9</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>10000000</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="3">
         <v>11</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="3">
         <v>2</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="3">
         <v>25</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" s="3" t="s">
         <v>47</v>
       </c>
       <c r="P14" s="2">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="Q14">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="R14">
+        <v>0.08</v>
+      </c>
+      <c r="R14" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>9</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>10000000</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="3">
         <v>11</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="3">
         <v>2</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="3">
         <v>25</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" s="3" t="s">
         <v>48</v>
       </c>
       <c r="P15" s="2">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="Q15">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="R15">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="R15" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>9</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>10000000</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>0</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>0</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="3">
         <v>11</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="3">
         <v>2</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="3">
         <v>0</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="3">
         <v>0</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="3">
         <v>25</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="3">
         <v>0</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="3">
         <v>0</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" s="3" t="s">
         <v>49</v>
       </c>
       <c r="P16" s="2">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="Q16">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="R16">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="R16" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>9</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>10000000</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>0</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>0</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="3">
         <v>11</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="3">
         <v>2</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="3">
         <v>0</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="3">
         <v>0</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="3">
         <v>25</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="3">
         <v>0</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="3">
         <v>0</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O17" s="3" t="s">
         <v>50</v>
       </c>
       <c r="P17" s="2">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="R17">
-        <v>10000</v>
+        <v>0.105</v>
+      </c>
+      <c r="R17" s="3">
+        <v>12000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/PetEquipment.xlsx
+++ b/Assets/06.Table/PetEquipment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C14A24-95E6-474F-860E-3596266756E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBAC08E-739E-46E2-9B3D-50BC516F104A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,6 +224,36 @@
   </si>
   <si>
     <t>청룡 목걸이(각성3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p18</t>
+  </si>
+  <si>
+    <t>p19</t>
+  </si>
+  <si>
+    <t>현무 갑주(각성4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백호 부적(각성4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주작 반지(각성4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡 목걸이(각성4)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1627,6 +1657,230 @@
         <v>12000</v>
       </c>
     </row>
+    <row r="18" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="2">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>11</v>
+      </c>
+      <c r="I18" s="2">
+        <v>2</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>25</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0.115</v>
+      </c>
+      <c r="R18" s="2">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="2">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>11</v>
+      </c>
+      <c r="I19" s="2">
+        <v>2</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>25</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="R19" s="2">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="2">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>11</v>
+      </c>
+      <c r="I20" s="2">
+        <v>2</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>25</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="R20" s="2">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="2">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>11</v>
+      </c>
+      <c r="I21" s="2">
+        <v>2</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>25</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="R21" s="2">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/PetEquipment.xlsx
+++ b/Assets/06.Table/PetEquipment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBAC08E-739E-46E2-9B3D-50BC516F104A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3D8622-5A1A-4317-988D-1DAB119D9B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="2085" yWindow="4695" windowWidth="28800" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetEquipment" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,6 +254,14 @@
   </si>
   <si>
     <t>청룡 목걸이(각성4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용 보주</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -678,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1881,6 +1889,62 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="2">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>11</v>
+      </c>
+      <c r="I22" s="2">
+        <v>2</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>25</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0</v>
+      </c>
+      <c r="R22" s="2">
+        <v>21000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
